--- a/T22V2.xlsx
+++ b/T22V2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="935" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="935" visibility="visible" windowHeight="11160" windowWidth="20730" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Cover page" sheetId="1" state="visible" r:id="rId1"/>
@@ -24,12 +24,12 @@
   <definedNames>
     <definedName name="_xlnm.Criteria">[1]Weather!$AY$4</definedName>
     <definedName name="_xlnm.Database">[1]Weather!$AY$4</definedName>
-    <definedName name="Education" hidden="1">{#N/A,#N/A,FALSE,"1-1";#N/A,#N/A,FALSE,"2-1";#N/A,#N/A,FALSE,"3-1";#N/A,#N/A,FALSE,"4-1";#N/A,#N/A,FALSE,"5-1";#N/A,#N/A,FALSE,"6-1"}</definedName>
-    <definedName name="wrn.WETHER." hidden="1">{#N/A,#N/A,FALSE,"1-1";#N/A,#N/A,FALSE,"2-1";#N/A,#N/A,FALSE,"3-1";#N/A,#N/A,FALSE,"4-1";#N/A,#N/A,FALSE,"5-1";#N/A,#N/A,FALSE,"6-1"}</definedName>
+    <definedName hidden="1" name="Education">{#N/A,#N/A,FALSE,"1-1";#N/A,#N/A,FALSE,"2-1";#N/A,#N/A,FALSE,"3-1";#N/A,#N/A,FALSE,"4-1";#N/A,#N/A,FALSE,"5-1";#N/A,#N/A,FALSE,"6-1"}</definedName>
+    <definedName hidden="1" name="wrn.WETHER.">{#N/A,#N/A,FALSE,"1-1";#N/A,#N/A,FALSE,"2-1";#N/A,#N/A,FALSE,"3-1";#N/A,#N/A,FALSE,"4-1";#N/A,#N/A,FALSE,"5-1";#N/A,#N/A,FALSE,"6-1"}</definedName>
     <definedName name="ش1">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Source'!$A$1:$O$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'S2T Mapping'!$A$1:$I$85</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Target Table'!$A$1:$K$18</definedName>
+    <definedName localSheetId="1" name="_xlnm.Print_Area">'Source'!$A$1:$O$37</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'S2T Mapping'!$A$1:$I$85</definedName>
+    <definedName localSheetId="3" name="_xlnm.Print_Area">'Target Table'!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -38,12 +38,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,###"/>
-    <numFmt numFmtId="167" formatCode="#,###.0"/>
-    <numFmt numFmtId="168" formatCode="#,###.00"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt formatCode="#,##0.0" numFmtId="164"/>
+    <numFmt formatCode="0.0" numFmtId="165"/>
+    <numFmt formatCode="#,###" numFmtId="166"/>
+    <numFmt formatCode="#,###.0" numFmtId="167"/>
+    <numFmt formatCode="#,###.00" numFmtId="168"/>
+    <numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" numFmtId="169"/>
   </numFmts>
   <fonts count="71">
     <font>
@@ -891,854 +891,854 @@
     </border>
   </borders>
   <cellStyleXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="34" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="9"/>
   </cellStyleXfs>
   <cellXfs count="298">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="35" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="35" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="35" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment readingOrder="2" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="35" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" readingOrder="2" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="38" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" indent="1" readingOrder="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="40" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="41" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="41" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="41" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="41" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" readingOrder="2" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="43" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="45" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="46" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="46" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="2" fillId="6" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment readingOrder="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="right" readingOrder="2" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="44" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="44" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" readingOrder="2" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="left" readingOrder="2" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="48" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="39" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="50" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="51" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="4" fillId="7" fontId="23" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="51" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="4" fillId="7" fontId="51" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="26" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="4" fillId="7" fontId="26" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="30" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="31" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="32" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="32" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="32" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="52" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="52" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="45" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="1" fillId="11" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="left" readingOrder="2" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="1" fillId="0" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="1" fillId="12" fontId="53" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" readingOrder="2" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment readingOrder="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="13" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="44" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="44" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="1" fillId="12" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="right" readingOrder="2" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" readingOrder="2" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" readingOrder="2" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="1" fillId="12" fontId="33" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" readingOrder="2" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="57" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment readingOrder="2" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="left" readingOrder="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="52" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="52" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    <xf borderId="0" fillId="5" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="53" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" readingOrder="2" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="13" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" readingOrder="2" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" readingOrder="2" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="left" readingOrder="2" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="58" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment readingOrder="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="20" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="58" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" readingOrder="2" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" readingOrder="2" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="46" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment readingOrder="2" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="46" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="44" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="37" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="23" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="13" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="49" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="49" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="25" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" readingOrder="2" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="25" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="41" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="41" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="41" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="41" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="46" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="46" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="46" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="44" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="13" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="24" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="35" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="35" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="35" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="35" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="45" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="45" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="45" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="45" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="35" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="35" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="169" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="169" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="169" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="169" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="32" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" readingOrder="2" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="32" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="59" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="59" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="31" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="30" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="60" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="60" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="60" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="30" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="61" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="61" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="61" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="42" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="40" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="63" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="63" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="64" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment readingOrder="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="64" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" readingOrder="2" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="66" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="67" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="67" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="13" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="15" fillId="13" fontId="68" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="13" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="7" fillId="13" fontId="68" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="13" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="6" fillId="13" fontId="68" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="13" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="17" fillId="13" fontId="68" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="67" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="67" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="14" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf applyAlignment="1" borderId="26" fillId="14" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="left" readingOrder="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="14" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="26" fillId="14" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" readingOrder="2" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment readingOrder="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="67" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="67" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="67" fillId="15" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="26" fillId="15" fontId="67" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="67" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="67" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="14" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="26" fillId="14" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="right" readingOrder="2" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" readingOrder="2" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" readingOrder="2" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="67" fillId="15" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="26" fillId="15" fontId="67" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" readingOrder="2" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="14" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf applyAlignment="1" borderId="26" fillId="14" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment readingOrder="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="67" fillId="14" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="26" fillId="14" fontId="67" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="14" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="26" fillId="14" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" readingOrder="2" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="11" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="left" readingOrder="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="64" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="64" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="70" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="64" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="64" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" readingOrder="2" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="32" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="164" fontId="44" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="44" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" readingOrder="2" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="55" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="54" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="56" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="7" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="46" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="42" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="56" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="54" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="57" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="24" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="44" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" readingOrder="2" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" readingOrder="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="57" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" readingOrder="2" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="40" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="57" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" readingOrder="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf borderId="18" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" readingOrder="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="66" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="67" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="67" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" readingOrder="2" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="67" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="67" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="65" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" readingOrder="2" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="65" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="65" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="65" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="65" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="65" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="13" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="16" fillId="13" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="13" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="13" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="13" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf applyAlignment="1" borderId="25" fillId="13" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" readingOrder="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="13" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="13" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="13" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="13" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="13" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="13" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="13" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="13" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="13" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="13" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="13" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="16" fillId="13" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="67" fillId="13" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="16" fillId="13" fontId="67" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" readingOrder="2" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="67" fillId="13" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf applyAlignment="1" borderId="25" fillId="13" fontId="67" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" readingOrder="2" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="13" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="13" fillId="13" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="13" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="13" fontId="67" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="62" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="62" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="70" fillId="16" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="70" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="16" fontId="64" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="11" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="‏_x001d_ً'_x000c_ï‏÷_x000c__x001c_" xfId="1"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="Normal 4" xfId="5"/>
     <cellStyle name="Normal 5" xfId="6"/>
-    <cellStyle name="Percent" xfId="7" builtinId="5"/>
+    <cellStyle builtinId="5" name="Percent" xfId="7"/>
     <cellStyle name="Percent 2" xfId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1820,34 +1820,34 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0">
-                <a:latin typeface="Al-Khawarzmi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
-                <a:cs typeface="Al-Khawarzmi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
+              <a:defRPr b="0" sz="900">
+                <a:latin charset="-78" panose="01000000000000000000" pitchFamily="2" typeface="Al-Khawarzmi"/>
+                <a:cs charset="-78" panose="01000000000000000000" pitchFamily="2" typeface="Al-Khawarzmi"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ar-JO" sz="900" b="0">
-                <a:latin typeface="Al-Khawarzmi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
-                <a:cs typeface="Al-Khawarzmi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
+              <a:rPr b="0" lang="ar-JO" sz="900">
+                <a:latin charset="-78" panose="01000000000000000000" pitchFamily="2" typeface="Al-Khawarzmi"/>
+                <a:cs charset="-78" panose="01000000000000000000" pitchFamily="2" typeface="Al-Khawarzmi"/>
               </a:rPr>
               <a:t>معدل الباحثين عن عمل حسب فئات السن</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="900" b="0">
-              <a:latin typeface="Al-Khawarzmi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
-              <a:cs typeface="Al-Khawarzmi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
+            <a:endParaRPr b="0" lang="en-US" sz="900">
+              <a:latin charset="-78" panose="01000000000000000000" pitchFamily="2" typeface="Al-Khawarzmi"/>
+              <a:cs charset="-78" panose="01000000000000000000" pitchFamily="2" typeface="Al-Khawarzmi"/>
             </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0">
-                <a:latin typeface="Al-Khawarzmi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
-                <a:cs typeface="Al-Khawarzmi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
+              <a:defRPr b="0" sz="900">
+                <a:latin charset="-78" panose="01000000000000000000" pitchFamily="2" typeface="Al-Khawarzmi"/>
+                <a:cs charset="-78" panose="01000000000000000000" pitchFamily="2" typeface="Al-Khawarzmi"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="900" b="0">
-                <a:latin typeface="Al-Khawarzmi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
-                <a:cs typeface="Al-Khawarzmi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
+              <a:rPr b="0" lang="en-US" sz="900">
+                <a:latin charset="-78" panose="01000000000000000000" pitchFamily="2" typeface="Al-Khawarzmi"/>
+                <a:cs charset="-78" panose="01000000000000000000" pitchFamily="2" typeface="Al-Khawarzmi"/>
               </a:rPr>
               <a:t>Unemployment rate by Age Group</a:t>
             </a:r>
@@ -1901,7 +1901,7 @@
                 </a:gs>
               </a:gsLst>
               <a:path path="circle">
-                <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+                <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
               </a:path>
               <a:tileRect/>
             </a:gradFill>
@@ -1920,15 +1920,15 @@
               </a:ln>
             </spPr>
             <txPr>
-              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+              <a:bodyPr anchor="ctr" bIns="19050" lIns="38100" rIns="38100" tIns="19050" wrap="square">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="800">
-                    <a:latin typeface="Al-Khawarzmi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
-                    <a:cs typeface="Al-Khawarzmi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
+                    <a:latin charset="-78" panose="01000000000000000000" pitchFamily="2" typeface="Al-Khawarzmi"/>
+                    <a:cs charset="-78" panose="01000000000000000000" pitchFamily="2" typeface="Al-Khawarzmi"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -2019,35 +2019,35 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0">
-                    <a:latin typeface="Al-Khawarzmi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
-                    <a:cs typeface="Al-Khawarzmi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
+                  <a:defRPr b="0" sz="800">
+                    <a:latin charset="-78" panose="01000000000000000000" pitchFamily="2" typeface="Al-Khawarzmi"/>
+                    <a:cs charset="-78" panose="01000000000000000000" pitchFamily="2" typeface="Al-Khawarzmi"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="800" b="0">
-                    <a:latin typeface="Al-Khawarzmi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
-                    <a:cs typeface="Al-Khawarzmi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
+                  <a:rPr b="0" lang="en-US" sz="800">
+                    <a:latin charset="-78" panose="01000000000000000000" pitchFamily="2" typeface="Al-Khawarzmi"/>
+                    <a:cs charset="-78" panose="01000000000000000000" pitchFamily="2" typeface="Al-Khawarzmi"/>
                   </a:rPr>
                   <a:t>Age</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="800" b="0" baseline="0">
-                    <a:latin typeface="Al-Khawarzmi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
-                    <a:cs typeface="Al-Khawarzmi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
+                  <a:rPr b="0" baseline="0" lang="en-US" sz="800">
+                    <a:latin charset="-78" panose="01000000000000000000" pitchFamily="2" typeface="Al-Khawarzmi"/>
+                    <a:cs charset="-78" panose="01000000000000000000" pitchFamily="2" typeface="Al-Khawarzmi"/>
                   </a:rPr>
                   <a:t xml:space="preserve"> Group   </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ar-JO" sz="800" b="0" baseline="0">
-                    <a:latin typeface="Al-Khawarzmi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
-                    <a:cs typeface="Al-Khawarzmi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
+                  <a:rPr b="0" baseline="0" lang="ar-JO" sz="800">
+                    <a:latin charset="-78" panose="01000000000000000000" pitchFamily="2" typeface="Al-Khawarzmi"/>
+                    <a:cs charset="-78" panose="01000000000000000000" pitchFamily="2" typeface="Al-Khawarzmi"/>
                   </a:rPr>
                   <a:t>فئات السن</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="800" b="0">
-                  <a:latin typeface="Al-Khawarzmi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
-                  <a:cs typeface="Al-Khawarzmi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
+                <a:endParaRPr b="0" lang="en-US" sz="800">
+                  <a:latin charset="-78" panose="01000000000000000000" pitchFamily="2" typeface="Al-Khawarzmi"/>
+                  <a:cs charset="-78" panose="01000000000000000000" pitchFamily="2" typeface="Al-Khawarzmi"/>
                 </a:endParaRPr>
               </a:p>
             </rich>
@@ -2070,7 +2070,7 @@
         <tickLblPos val="nextTo"/>
         <spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -2082,17 +2082,17 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="800">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:sysClr lastClr="000000" val="windowText"/>
                 </a:solidFill>
-                <a:latin typeface="Al-Khawarzmi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
+                <a:latin charset="-78" panose="01000000000000000000" pitchFamily="2" typeface="Al-Khawarzmi"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Al-Khawarzmi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
+                <a:cs charset="-78" panose="01000000000000000000" pitchFamily="2" typeface="Al-Khawarzmi"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -2126,17 +2126,17 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="800">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:sysClr lastClr="000000" val="windowText"/>
                 </a:solidFill>
-                <a:latin typeface="Al-Khawarzmi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
+                <a:latin charset="-78" panose="01000000000000000000" pitchFamily="2" typeface="Al-Khawarzmi"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Al-Khawarzmi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
+                <a:cs charset="-78" panose="01000000000000000000" pitchFamily="2" typeface="Al-Khawarzmi"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -2577,16 +2577,16 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="A1" sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="18.75"/>
   <cols>
-    <col width="23" customWidth="1" style="177" min="1" max="1"/>
-    <col width="34.140625" bestFit="1" customWidth="1" style="177" min="2" max="2"/>
-    <col width="9.140625" customWidth="1" style="177" min="3" max="7"/>
-    <col width="9.140625" customWidth="1" style="177" min="8" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="177" width="23"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="177" width="34.140625"/>
+    <col customWidth="1" max="7" min="3" style="177" width="9.140625"/>
+    <col customWidth="1" max="16384" min="8" style="177" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2698,7 +2698,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
@@ -2709,7 +2709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E526"/>
+  <dimension ref="A1:E601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -2717,16 +2717,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14" defaultRowHeight="18"/>
   <cols>
-    <col width="21.7109375" customWidth="1" style="66" min="1" max="1"/>
-    <col width="23.5703125" customWidth="1" style="66" min="2" max="2"/>
-    <col width="25" customWidth="1" style="66" min="3" max="3"/>
-    <col width="24.5703125" customWidth="1" style="66" min="4" max="4"/>
-    <col width="42" customWidth="1" style="66" min="5" max="5"/>
-    <col width="14" customWidth="1" style="66" min="6" max="10"/>
-    <col width="14" customWidth="1" style="66" min="11" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="66" width="21.7109375"/>
+    <col customWidth="1" max="2" min="2" style="66" width="23.5703125"/>
+    <col customWidth="1" max="3" min="3" style="66" width="25"/>
+    <col customWidth="1" max="4" min="4" style="66" width="24.5703125"/>
+    <col customWidth="1" max="5" min="5" style="66" width="42"/>
+    <col customWidth="1" max="10" min="6" style="66" width="14"/>
+    <col customWidth="1" max="16384" min="11" style="66" width="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.75" customHeight="1" s="285">
+    <row customHeight="1" ht="21.75" r="1" s="285">
       <c r="A1" s="68" t="inlineStr">
         <is>
           <t>Sheet_Source</t>
@@ -2753,397 +2753,397 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="2" s="285">
       <c r="A2" s="71" t="n"/>
       <c r="B2" s="71" t="n"/>
       <c r="C2" s="70" t="n"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="3" s="285">
       <c r="A3" s="71" t="n"/>
       <c r="B3" s="71" t="n"/>
       <c r="C3" s="52" t="n"/>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="4" s="285">
       <c r="A4" s="71" t="n"/>
       <c r="B4" s="71" t="n"/>
       <c r="C4" s="52" t="n"/>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="5" s="285">
       <c r="A5" s="71" t="n"/>
       <c r="B5" s="71" t="n"/>
       <c r="C5" s="52" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="6" s="285">
       <c r="A6" s="71" t="n"/>
       <c r="B6" s="71" t="n"/>
       <c r="C6" s="52" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="7" s="285">
       <c r="A7" s="71" t="n"/>
       <c r="B7" s="71" t="n"/>
       <c r="C7" s="52" t="n"/>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="8" s="285">
       <c r="A8" s="71" t="n"/>
       <c r="B8" s="71" t="n"/>
       <c r="C8" s="52" t="n"/>
     </row>
-    <row r="9" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="9" s="285">
       <c r="A9" s="71" t="n"/>
       <c r="B9" s="71" t="n"/>
       <c r="C9" s="52" t="n"/>
     </row>
-    <row r="10" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="10" s="285">
       <c r="A10" s="71" t="n"/>
       <c r="B10" s="69" t="n"/>
       <c r="C10" s="52" t="n"/>
     </row>
-    <row r="11" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="11" s="285">
       <c r="A11" s="71" t="n"/>
       <c r="B11" s="70" t="n"/>
       <c r="C11" s="52" t="n"/>
     </row>
-    <row r="12" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="12" s="285">
       <c r="A12" s="71" t="n"/>
       <c r="B12" s="70" t="n"/>
       <c r="C12" s="52" t="n"/>
     </row>
-    <row r="13" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="13" s="285">
       <c r="A13" s="71" t="n"/>
       <c r="B13" s="70" t="n"/>
       <c r="C13" s="52" t="n"/>
     </row>
-    <row r="14" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="14" s="285">
       <c r="A14" s="71" t="n"/>
       <c r="B14" s="70" t="n"/>
       <c r="C14" s="52" t="n"/>
     </row>
-    <row r="15" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="15" s="285">
       <c r="A15" s="71" t="n"/>
       <c r="B15" s="70" t="n"/>
       <c r="C15" s="52" t="n"/>
     </row>
-    <row r="16" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="16" s="285">
       <c r="A16" s="71" t="n"/>
       <c r="B16" s="70" t="n"/>
       <c r="C16" s="52" t="n"/>
     </row>
-    <row r="17" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="17" s="285">
       <c r="A17" s="71" t="n"/>
       <c r="B17" s="70" t="n"/>
       <c r="C17" s="52" t="n"/>
     </row>
-    <row r="18" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="18" s="285">
       <c r="A18" s="71" t="n"/>
       <c r="B18" s="70" t="n"/>
       <c r="C18" s="52" t="n"/>
     </row>
-    <row r="19" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="19" s="285">
       <c r="A19" s="71" t="n"/>
       <c r="B19" s="70" t="n"/>
       <c r="C19" s="52" t="n"/>
     </row>
-    <row r="20" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="20" s="285">
       <c r="A20" s="71" t="n"/>
       <c r="B20" s="70" t="n"/>
       <c r="C20" s="52" t="n"/>
     </row>
-    <row r="21" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="21" s="285">
       <c r="A21" s="71" t="n"/>
       <c r="B21" s="70" t="n"/>
       <c r="C21" s="52" t="n"/>
     </row>
-    <row r="22" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="22" s="285">
       <c r="A22" s="71" t="n"/>
       <c r="B22" s="70" t="n"/>
       <c r="C22" s="52" t="n"/>
     </row>
-    <row r="23" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="23" s="285">
       <c r="A23" s="71" t="n"/>
       <c r="B23" s="70" t="n"/>
       <c r="C23" s="52" t="n"/>
     </row>
-    <row r="24" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="24" s="285">
       <c r="A24" s="71" t="n"/>
       <c r="B24" s="70" t="n"/>
       <c r="C24" s="52" t="n"/>
     </row>
-    <row r="25" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="25" s="285">
       <c r="A25" s="71" t="n"/>
       <c r="B25" s="70" t="n"/>
       <c r="C25" s="52" t="n"/>
     </row>
-    <row r="26" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="26" s="285">
       <c r="A26" s="71" t="n"/>
       <c r="B26" s="70" t="n"/>
       <c r="C26" s="52" t="n"/>
     </row>
-    <row r="27" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="27" s="285">
       <c r="A27" s="71" t="n"/>
       <c r="B27" s="70" t="n"/>
       <c r="C27" s="52" t="n"/>
     </row>
-    <row r="28" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="28" s="285">
       <c r="A28" s="71" t="n"/>
       <c r="B28" s="70" t="n"/>
       <c r="C28" s="52" t="n"/>
     </row>
-    <row r="29" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="29" s="285">
       <c r="A29" s="71" t="n"/>
       <c r="B29" s="70" t="n"/>
       <c r="C29" s="52" t="n"/>
     </row>
-    <row r="30" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="30" s="285">
       <c r="A30" s="71" t="n"/>
       <c r="B30" s="70" t="n"/>
       <c r="C30" s="52" t="n"/>
     </row>
-    <row r="31" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="31" s="285">
       <c r="A31" s="71" t="n"/>
       <c r="B31" s="70" t="n"/>
       <c r="C31" s="52" t="n"/>
     </row>
-    <row r="32" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="32" s="285">
       <c r="A32" s="71" t="n"/>
       <c r="B32" s="70" t="n"/>
       <c r="C32" s="52" t="n"/>
     </row>
-    <row r="33" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="33" s="285">
       <c r="A33" s="71" t="n"/>
       <c r="B33" s="70" t="n"/>
       <c r="C33" s="52" t="n"/>
     </row>
-    <row r="34" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="34" s="285">
       <c r="A34" s="71" t="n"/>
       <c r="B34" s="70" t="n"/>
       <c r="C34" s="52" t="n"/>
     </row>
-    <row r="35" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="35" s="285">
       <c r="A35" s="71" t="n"/>
       <c r="B35" s="70" t="n"/>
       <c r="C35" s="52" t="n"/>
     </row>
-    <row r="36" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="36" s="285">
       <c r="A36" s="71" t="n"/>
       <c r="B36" s="70" t="n"/>
       <c r="C36" s="52" t="n"/>
     </row>
-    <row r="37" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="37" s="285">
       <c r="A37" s="71" t="n"/>
       <c r="B37" s="70" t="n"/>
       <c r="C37" s="52" t="n"/>
     </row>
-    <row r="38" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="38" s="285">
       <c r="A38" s="71" t="n"/>
       <c r="B38" s="70" t="n"/>
       <c r="C38" s="52" t="n"/>
     </row>
-    <row r="39" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="39" s="285">
       <c r="A39" s="71" t="n"/>
       <c r="B39" s="158" t="n"/>
       <c r="C39" s="52" t="n"/>
     </row>
-    <row r="40" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="40" s="285">
       <c r="A40" s="71" t="n"/>
       <c r="B40" s="158" t="n"/>
       <c r="C40" s="52" t="n"/>
     </row>
-    <row r="41" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="41" s="285">
       <c r="A41" s="71" t="n"/>
       <c r="B41" s="158" t="n"/>
       <c r="C41" s="52" t="n"/>
     </row>
-    <row r="42" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="42" s="285">
       <c r="A42" s="71" t="n"/>
       <c r="B42" s="158" t="n"/>
       <c r="C42" s="52" t="n"/>
     </row>
-    <row r="43" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="43" s="285">
       <c r="A43" s="71" t="n"/>
       <c r="B43" s="158" t="n"/>
       <c r="C43" s="52" t="n"/>
     </row>
-    <row r="44" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="44" s="285">
       <c r="A44" s="71" t="n"/>
       <c r="B44" s="158" t="n"/>
       <c r="C44" s="52" t="n"/>
     </row>
-    <row r="45" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="45" s="285">
       <c r="A45" s="71" t="n"/>
       <c r="B45" s="158" t="n"/>
       <c r="C45" s="52" t="n"/>
     </row>
-    <row r="46" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="46" s="285">
       <c r="A46" s="71" t="n"/>
       <c r="B46" s="158" t="n"/>
       <c r="C46" s="52" t="n"/>
     </row>
-    <row r="47" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="47" s="285">
       <c r="A47" s="71" t="n"/>
       <c r="B47" s="158" t="n"/>
       <c r="C47" s="52" t="n"/>
     </row>
-    <row r="48" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="48" s="285">
       <c r="A48" s="71" t="n"/>
       <c r="B48" s="158" t="n"/>
       <c r="C48" s="52" t="n"/>
     </row>
-    <row r="49" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="49" s="285">
       <c r="A49" s="71" t="n"/>
       <c r="B49" s="158" t="n"/>
       <c r="C49" s="52" t="n"/>
     </row>
-    <row r="50" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="50" s="285">
       <c r="A50" s="71" t="n"/>
       <c r="B50" s="158" t="n"/>
       <c r="C50" s="52" t="n"/>
     </row>
-    <row r="51" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="51" s="285">
       <c r="A51" s="71" t="n"/>
       <c r="B51" s="158" t="n"/>
       <c r="C51" s="52" t="n"/>
     </row>
-    <row r="52" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="52" s="285">
       <c r="A52" s="71" t="n"/>
       <c r="B52" s="158" t="n"/>
       <c r="C52" s="52" t="n"/>
     </row>
-    <row r="53" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="53" s="285">
       <c r="A53" s="71" t="n"/>
       <c r="B53" s="158" t="n"/>
       <c r="C53" s="52" t="n"/>
     </row>
-    <row r="54" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="54" s="285">
       <c r="A54" s="71" t="n"/>
       <c r="B54" s="158" t="n"/>
       <c r="C54" s="52" t="n"/>
     </row>
-    <row r="55" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="55" s="285">
       <c r="A55" s="71" t="n"/>
       <c r="B55" s="158" t="n"/>
       <c r="C55" s="52" t="n"/>
     </row>
-    <row r="56" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="56" s="285">
       <c r="A56" s="71" t="n"/>
       <c r="B56" s="158" t="n"/>
       <c r="C56" s="52" t="n"/>
     </row>
-    <row r="57" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="57" s="285">
       <c r="A57" s="71" t="n"/>
       <c r="B57" s="158" t="n"/>
       <c r="C57" s="52" t="n"/>
     </row>
-    <row r="58" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="58" s="285">
       <c r="A58" s="71" t="n"/>
       <c r="B58" s="158" t="n"/>
       <c r="C58" s="52" t="n"/>
     </row>
-    <row r="59" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="59" s="285">
       <c r="A59" s="71" t="n"/>
       <c r="B59" s="158" t="n"/>
       <c r="C59" s="52" t="n"/>
     </row>
-    <row r="60" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="60" s="285">
       <c r="A60" s="71" t="n"/>
       <c r="B60" s="158" t="n"/>
       <c r="C60" s="52" t="n"/>
     </row>
-    <row r="61" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="61" s="285">
       <c r="A61" s="71" t="n"/>
       <c r="B61" s="158" t="n"/>
       <c r="C61" s="52" t="n"/>
     </row>
-    <row r="62" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="62" s="285">
       <c r="A62" s="71" t="n"/>
       <c r="B62" s="158" t="n"/>
       <c r="C62" s="52" t="n"/>
     </row>
-    <row r="63" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="63" s="285">
       <c r="A63" s="71" t="n"/>
       <c r="B63" s="158" t="n"/>
       <c r="C63" s="52" t="n"/>
     </row>
-    <row r="64" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="64" s="285">
       <c r="A64" s="71" t="n"/>
       <c r="B64" s="158" t="n"/>
       <c r="C64" s="52" t="n"/>
     </row>
-    <row r="65" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="65" s="285">
       <c r="A65" s="71" t="n"/>
       <c r="B65" s="158" t="n"/>
       <c r="C65" s="52" t="n"/>
     </row>
-    <row r="66" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="66" s="285">
       <c r="A66" s="71" t="n"/>
       <c r="B66" s="158" t="n"/>
       <c r="C66" s="52" t="n"/>
     </row>
-    <row r="67" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="67" s="285">
       <c r="A67" s="71" t="n"/>
       <c r="B67" s="158" t="n"/>
       <c r="C67" s="52" t="n"/>
     </row>
-    <row r="68" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="68" s="285">
       <c r="A68" s="71" t="n"/>
       <c r="B68" s="158" t="n"/>
       <c r="C68" s="52" t="n"/>
     </row>
-    <row r="69" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="69" s="285">
       <c r="A69" s="71" t="n"/>
       <c r="B69" s="158" t="n"/>
       <c r="C69" s="52" t="n"/>
     </row>
-    <row r="70" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="70" s="285">
       <c r="A70" s="71" t="n"/>
       <c r="B70" s="158" t="n"/>
       <c r="C70" s="52" t="n"/>
     </row>
-    <row r="71" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="71" s="285">
       <c r="A71" s="71" t="n"/>
       <c r="B71" s="158" t="n"/>
       <c r="C71" s="52" t="n"/>
     </row>
-    <row r="72" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="72" s="285">
       <c r="A72" s="71" t="n"/>
       <c r="B72" s="158" t="n"/>
       <c r="C72" s="52" t="n"/>
     </row>
-    <row r="73" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="73" s="285">
       <c r="A73" s="71" t="n"/>
       <c r="B73" s="158" t="n"/>
       <c r="C73" s="52" t="n"/>
     </row>
-    <row r="74" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="74" s="285">
       <c r="A74" s="71" t="n"/>
       <c r="B74" s="158" t="n"/>
       <c r="C74" s="52" t="n"/>
     </row>
-    <row r="75" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="75" s="285">
       <c r="A75" s="71" t="n"/>
       <c r="B75" s="158" t="n"/>
       <c r="C75" s="52" t="n"/>
     </row>
-    <row r="76" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="76" s="285">
       <c r="A76" s="71" t="n"/>
       <c r="B76" s="158" t="n"/>
       <c r="C76" s="52" t="n"/>
     </row>
-    <row r="77" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="77" s="285">
       <c r="A77" s="71" t="n"/>
       <c r="B77" s="158" t="n"/>
       <c r="C77" s="52" t="n"/>
     </row>
-    <row r="78" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="78" s="285">
       <c r="A78" s="71" t="n"/>
       <c r="B78" s="158" t="n"/>
       <c r="C78" s="52" t="n"/>
     </row>
-    <row r="79" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="79" s="285">
       <c r="A79" s="71" t="n"/>
       <c r="B79" s="158" t="n"/>
       <c r="C79" s="52" t="n"/>
     </row>
-    <row r="80" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="80" s="285">
       <c r="A80" s="71" t="n"/>
       <c r="B80" s="158" t="n"/>
       <c r="C80" s="52" t="n"/>
@@ -13126,8 +13126,1961 @@
         </is>
       </c>
     </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>22- معدل الباحثين عن عمل حسب فئات السن والجنس</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22-  Unemployment rate by Age Group and Sex </t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>C10</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>Age Group</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>C11</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15 - 24</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>C12</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25 - 29</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>C13</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30 - 34</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>C14</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 35 - 39</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>C15</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>40 and Above</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>C16</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Total</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+      <c r="C537" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>F6</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t xml:space="preserve">يوليو  - July   </t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>F7</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>الجملة</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>F8</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Total </t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>F9</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Rate.</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>F11</t>
+        </is>
+      </c>
+      <c r="C542" t="n">
+        <v>8.00469392181617</v>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>F12</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>5.6*</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>F13</t>
+        </is>
+      </c>
+      <c r="C544" t="n">
+        <v>2.023427112952845</v>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>F14</t>
+        </is>
+      </c>
+      <c r="C545" t="n">
+        <v>1.030715118594619</v>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>F15</t>
+        </is>
+      </c>
+      <c r="C546" t="n">
+        <v>0.03121774986702148</v>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>F16</t>
+        </is>
+      </c>
+      <c r="C547" t="n">
+        <v>2.452468111944302</v>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>G7</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>إناث</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>G8</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>G11</t>
+        </is>
+      </c>
+      <c r="C550" t="n">
+        <v>16.23725794213704</v>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>G12</t>
+        </is>
+      </c>
+      <c r="C551" t="n">
+        <v>23.72925698908656</v>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>G13</t>
+        </is>
+      </c>
+      <c r="C552" t="n">
+        <v>8.635043364424808</v>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>G14</t>
+        </is>
+      </c>
+      <c r="C553" t="n">
+        <v>3.807639853051395</v>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>G15</t>
+        </is>
+      </c>
+      <c r="C554" t="n">
+        <v>0.1184477701737234</v>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>G16</t>
+        </is>
+      </c>
+      <c r="C555" t="n">
+        <v>8.996470784253336</v>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>ذكور</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>H8</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>H11</t>
+        </is>
+      </c>
+      <c r="C558" t="n">
+        <v>6.335371319250271</v>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>H12</t>
+        </is>
+      </c>
+      <c r="C559" t="n">
+        <v>1.667882026688241</v>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>H13</t>
+        </is>
+      </c>
+      <c r="C560" t="n">
+        <v>0.4747999108851832</v>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>H14</t>
+        </is>
+      </c>
+      <c r="C561" t="n">
+        <v>0.3568777224224752</v>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>H15</t>
+        </is>
+      </c>
+      <c r="C562" t="n">
+        <v>0.01445334730490239</v>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>H16</t>
+        </is>
+      </c>
+      <c r="C563" t="n">
+        <v>1.037184571026423</v>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>I6</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t xml:space="preserve">يونيو  - June   </t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>I7</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>الجملة</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>I8</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Total </t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>I11</t>
+        </is>
+      </c>
+      <c r="C567" t="n">
+        <v>6</v>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>I12</t>
+        </is>
+      </c>
+      <c r="C568" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>I13</t>
+        </is>
+      </c>
+      <c r="C569" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>I14</t>
+        </is>
+      </c>
+      <c r="C570" t="n">
+        <v>1</v>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>I15</t>
+        </is>
+      </c>
+      <c r="C571" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>I16</t>
+        </is>
+      </c>
+      <c r="C572" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>J7</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>إناث</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>J8</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>J11</t>
+        </is>
+      </c>
+      <c r="C575" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>J12</t>
+        </is>
+      </c>
+      <c r="C576" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>J13</t>
+        </is>
+      </c>
+      <c r="C577" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>J14</t>
+        </is>
+      </c>
+      <c r="C578" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>J15</t>
+        </is>
+      </c>
+      <c r="C579" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>J16</t>
+        </is>
+      </c>
+      <c r="C580" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>K7</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>ذكور</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>K8</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>K9</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>معدل</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>K11</t>
+        </is>
+      </c>
+      <c r="C584" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="C585" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>K13</t>
+        </is>
+      </c>
+      <c r="C586" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>K14</t>
+        </is>
+      </c>
+      <c r="C587" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>K15</t>
+        </is>
+      </c>
+      <c r="C588" t="n">
+        <v>0.03929913010844435</v>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>K16</t>
+        </is>
+      </c>
+      <c r="C589" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>البيان</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>N10</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>الفئة العمرية</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>N11</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>15 - 24</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>N12</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>25 - 29</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>N13</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30 - 34</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>N14</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 35 - 39</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>N15</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 40 فـأعلـــى</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>N16</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الجملة </t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>C18</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>*: Provisional</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>C19</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>Source: NCSI</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>N18</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>*: مبدئي</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>N19</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>المصدر: المركز الوطني للإحصاء والمعلومات</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>01/03/2021 16:34:05</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>01034498</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
@@ -13146,37 +15099,37 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="18"/>
   <cols>
-    <col width="22" bestFit="1" customWidth="1" style="66" min="1" max="1"/>
-    <col width="13.42578125" customWidth="1" style="66" min="2" max="2"/>
-    <col width="12.85546875" customWidth="1" style="66" min="3" max="3"/>
-    <col width="17.28515625" customWidth="1" style="66" min="4" max="4"/>
-    <col width="15.85546875" customWidth="1" style="66" min="5" max="5"/>
-    <col width="9.42578125" customWidth="1" style="66" min="6" max="6"/>
-    <col width="22.85546875" customWidth="1" style="66" min="7" max="7"/>
-    <col width="20.5703125" customWidth="1" style="66" min="8" max="8"/>
-    <col width="18" customWidth="1" style="66" min="9" max="9"/>
-    <col width="19.140625" customWidth="1" style="66" min="10" max="10"/>
-    <col width="12.5703125" customWidth="1" style="66" min="11" max="11"/>
-    <col width="8.5703125" customWidth="1" style="66" min="12" max="12"/>
-    <col width="11" customWidth="1" style="66" min="13" max="13"/>
-    <col width="11.85546875" customWidth="1" style="66" min="14" max="14"/>
-    <col width="12.42578125" customWidth="1" style="66" min="15" max="15"/>
-    <col width="13.140625" customWidth="1" style="66" min="16" max="16"/>
-    <col width="7.28515625" customWidth="1" style="66" min="17" max="17"/>
-    <col width="8.7109375" customWidth="1" style="66" min="18" max="18"/>
-    <col width="6.7109375" customWidth="1" style="66" min="19" max="19"/>
-    <col width="6.5703125" customWidth="1" style="66" min="20" max="20"/>
-    <col width="7" customWidth="1" style="66" min="21" max="21"/>
-    <col width="6.140625" bestFit="1" customWidth="1" style="66" min="22" max="22"/>
-    <col width="12" customWidth="1" style="66" min="23" max="23"/>
-    <col width="16.140625" customWidth="1" style="66" min="24" max="24"/>
-    <col width="17.5703125" customWidth="1" style="66" min="25" max="25"/>
-    <col width="19" customWidth="1" style="66" min="26" max="26"/>
-    <col width="9.140625" customWidth="1" style="66" min="27" max="30"/>
-    <col width="9.140625" customWidth="1" style="66" min="31" max="16384"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="66" width="22"/>
+    <col customWidth="1" max="2" min="2" style="66" width="13.42578125"/>
+    <col customWidth="1" max="3" min="3" style="66" width="12.85546875"/>
+    <col customWidth="1" max="4" min="4" style="66" width="17.28515625"/>
+    <col customWidth="1" max="5" min="5" style="66" width="15.85546875"/>
+    <col customWidth="1" max="6" min="6" style="66" width="9.42578125"/>
+    <col customWidth="1" max="7" min="7" style="66" width="22.85546875"/>
+    <col customWidth="1" max="8" min="8" style="66" width="20.5703125"/>
+    <col customWidth="1" max="9" min="9" style="66" width="18"/>
+    <col customWidth="1" max="10" min="10" style="66" width="19.140625"/>
+    <col customWidth="1" max="11" min="11" style="66" width="12.5703125"/>
+    <col customWidth="1" max="12" min="12" style="66" width="8.5703125"/>
+    <col customWidth="1" max="13" min="13" style="66" width="11"/>
+    <col customWidth="1" max="14" min="14" style="66" width="11.85546875"/>
+    <col customWidth="1" max="15" min="15" style="66" width="12.42578125"/>
+    <col customWidth="1" max="16" min="16" style="66" width="13.140625"/>
+    <col customWidth="1" max="17" min="17" style="66" width="7.28515625"/>
+    <col customWidth="1" max="18" min="18" style="66" width="8.7109375"/>
+    <col customWidth="1" max="19" min="19" style="66" width="6.7109375"/>
+    <col customWidth="1" max="20" min="20" style="66" width="6.5703125"/>
+    <col customWidth="1" max="21" min="21" style="66" width="7"/>
+    <col bestFit="1" customWidth="1" max="22" min="22" style="66" width="6.140625"/>
+    <col customWidth="1" max="23" min="23" style="66" width="12"/>
+    <col customWidth="1" max="24" min="24" style="66" width="16.140625"/>
+    <col customWidth="1" max="25" min="25" style="66" width="17.5703125"/>
+    <col customWidth="1" max="26" min="26" style="66" width="19"/>
+    <col customWidth="1" max="30" min="27" style="66" width="9.140625"/>
+    <col customWidth="1" max="16384" min="31" style="66" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" s="285">
+    <row customHeight="1" ht="35.25" r="1" s="285">
       <c r="A1" s="68" t="inlineStr">
         <is>
           <t>Relational DB Structure</t>
@@ -13528,12 +15481,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -13638,12 +15591,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -13736,12 +15689,12 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -13834,12 +15787,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -13932,12 +15885,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -14030,12 +15983,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -14128,12 +16081,12 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -14226,12 +16179,12 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -14324,12 +16277,12 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -14422,12 +16375,12 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -14520,12 +16473,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -14618,12 +16571,12 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -14716,12 +16669,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -14814,12 +16767,12 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -14912,12 +16865,12 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -15010,12 +16963,12 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -15108,12 +17061,12 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -15206,12 +17159,12 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -15304,12 +17257,12 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -15402,12 +17355,12 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -15500,12 +17453,12 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -15598,12 +17551,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -15696,12 +17649,12 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -15794,12 +17747,12 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -15892,12 +17845,12 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -15990,12 +17943,12 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -16088,12 +18041,12 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -16186,12 +18139,12 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -16284,12 +18237,12 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -16382,12 +18335,12 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -16480,12 +18433,12 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -16578,12 +18531,12 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -16676,12 +18629,12 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -16774,12 +18727,12 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -16872,12 +18825,12 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
@@ -16970,17 +18923,17 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>01/03/2021 16:16:48</t>
+          <t>01/03/2021 16:34:05</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>01039751</t>
+          <t>01034498</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
@@ -16993,56 +18946,56 @@
   </sheetPr>
   <dimension ref="C2:CP130"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="12"/>
   <cols>
-    <col width="4.85546875" customWidth="1" style="234" min="1" max="1"/>
-    <col width="1.42578125" customWidth="1" style="234" min="2" max="2"/>
-    <col width="32.85546875" customWidth="1" style="234" min="3" max="3"/>
-    <col width="2.140625" customWidth="1" style="234" min="4" max="4"/>
-    <col width="3" customWidth="1" style="234" min="5" max="5"/>
-    <col width="9.5703125" customWidth="1" style="232" min="6" max="6"/>
-    <col width="10.5703125" customWidth="1" style="232" min="7" max="7"/>
-    <col width="10.140625" customWidth="1" style="232" min="8" max="8"/>
-    <col width="9.5703125" customWidth="1" style="232" min="9" max="9"/>
-    <col width="11.5703125" customWidth="1" style="232" min="10" max="10"/>
-    <col width="10.7109375" customWidth="1" style="232" min="11" max="11"/>
-    <col width="3.5703125" customWidth="1" style="234" min="12" max="12"/>
-    <col width="9.42578125" customWidth="1" style="234" min="13" max="13"/>
-    <col width="25" customWidth="1" style="234" min="14" max="14"/>
-    <col width="15.42578125" customWidth="1" style="234" min="15" max="15"/>
-    <col width="24.140625" customWidth="1" style="230" min="16" max="16"/>
-    <col width="18.85546875" customWidth="1" style="230" min="17" max="17"/>
-    <col width="24.140625" customWidth="1" style="230" min="18" max="18"/>
-    <col width="9.5703125" customWidth="1" style="230" min="19" max="19"/>
-    <col width="24.140625" customWidth="1" style="230" min="20" max="20"/>
-    <col width="18.85546875" customWidth="1" style="230" min="21" max="21"/>
-    <col width="23.85546875" customWidth="1" style="230" min="22" max="22"/>
-    <col width="25" customWidth="1" style="234" min="23" max="23"/>
-    <col width="27.28515625" customWidth="1" style="234" min="24" max="24"/>
-    <col width="26.140625" customWidth="1" style="234" min="25" max="25"/>
-    <col width="20.85546875" customWidth="1" style="234" min="26" max="32"/>
-    <col width="26.5703125" customWidth="1" style="234" min="33" max="33"/>
-    <col width="10.140625" customWidth="1" style="234" min="34" max="34"/>
-    <col width="14.28515625" customWidth="1" style="234" min="35" max="54"/>
-    <col width="12.28515625" customWidth="1" style="234" min="55" max="55"/>
-    <col width="12.85546875" customWidth="1" style="234" min="56" max="87"/>
-    <col width="11.28515625" customWidth="1" style="234" min="88" max="88"/>
-    <col width="8.85546875" customWidth="1" style="234" min="89" max="90"/>
-    <col width="11.140625" customWidth="1" style="234" min="91" max="93"/>
-    <col width="8.140625" customWidth="1" style="234" min="94" max="96"/>
-    <col width="14.42578125" customWidth="1" style="234" min="97" max="99"/>
-    <col width="15" customWidth="1" style="234" min="100" max="100"/>
-    <col width="8" customWidth="1" style="234" min="101" max="101"/>
-    <col width="8.85546875" customWidth="1" style="234" min="102" max="109"/>
-    <col width="8.85546875" customWidth="1" style="234" min="110" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="234" width="4.85546875"/>
+    <col customWidth="1" max="2" min="2" style="234" width="1.42578125"/>
+    <col customWidth="1" max="3" min="3" style="234" width="32.85546875"/>
+    <col customWidth="1" max="4" min="4" style="234" width="2.140625"/>
+    <col customWidth="1" max="5" min="5" style="234" width="3"/>
+    <col customWidth="1" max="6" min="6" style="232" width="9.5703125"/>
+    <col customWidth="1" max="7" min="7" style="232" width="10.5703125"/>
+    <col customWidth="1" max="8" min="8" style="232" width="10.140625"/>
+    <col customWidth="1" max="9" min="9" style="232" width="9.5703125"/>
+    <col customWidth="1" max="10" min="10" style="232" width="11.5703125"/>
+    <col customWidth="1" max="11" min="11" style="232" width="10.7109375"/>
+    <col customWidth="1" max="12" min="12" style="234" width="3.5703125"/>
+    <col customWidth="1" max="13" min="13" style="234" width="9.42578125"/>
+    <col customWidth="1" max="14" min="14" style="234" width="25"/>
+    <col customWidth="1" max="15" min="15" style="234" width="15.42578125"/>
+    <col customWidth="1" max="16" min="16" style="230" width="24.140625"/>
+    <col customWidth="1" max="17" min="17" style="230" width="18.85546875"/>
+    <col customWidth="1" max="18" min="18" style="230" width="24.140625"/>
+    <col customWidth="1" max="19" min="19" style="230" width="9.5703125"/>
+    <col customWidth="1" max="20" min="20" style="230" width="24.140625"/>
+    <col customWidth="1" max="21" min="21" style="230" width="18.85546875"/>
+    <col customWidth="1" max="22" min="22" style="230" width="23.85546875"/>
+    <col customWidth="1" max="23" min="23" style="234" width="25"/>
+    <col customWidth="1" max="24" min="24" style="234" width="27.28515625"/>
+    <col customWidth="1" max="25" min="25" style="234" width="26.140625"/>
+    <col customWidth="1" max="32" min="26" style="234" width="20.85546875"/>
+    <col customWidth="1" max="33" min="33" style="234" width="26.5703125"/>
+    <col customWidth="1" max="34" min="34" style="234" width="10.140625"/>
+    <col customWidth="1" max="54" min="35" style="234" width="14.28515625"/>
+    <col customWidth="1" max="55" min="55" style="234" width="12.28515625"/>
+    <col customWidth="1" max="87" min="56" style="234" width="12.85546875"/>
+    <col customWidth="1" max="88" min="88" style="234" width="11.28515625"/>
+    <col customWidth="1" max="90" min="89" style="234" width="8.85546875"/>
+    <col customWidth="1" max="93" min="91" style="234" width="11.140625"/>
+    <col customWidth="1" max="96" min="94" style="234" width="8.140625"/>
+    <col customWidth="1" max="99" min="97" style="234" width="14.42578125"/>
+    <col customWidth="1" max="100" min="100" style="234" width="15"/>
+    <col customWidth="1" max="101" min="101" style="234" width="8"/>
+    <col customWidth="1" max="109" min="102" style="234" width="8.85546875"/>
+    <col customWidth="1" max="16384" min="110" style="234" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="285"/>
-    <row r="2" ht="23.25" customFormat="1" customHeight="1" s="253">
+    <row customHeight="1" ht="15" r="1" s="285"/>
+    <row customFormat="1" customHeight="1" ht="23.25" r="2" s="253">
       <c r="C2" s="96" t="inlineStr">
         <is>
           <t>22- معدل الباحثين عن عمل حسب فئات السن والجنس</t>
@@ -17067,7 +19020,7 @@
       <c r="U2" s="16" t="n"/>
       <c r="V2" s="16" t="n"/>
     </row>
-    <row r="3" ht="23.25" customFormat="1" customHeight="1" s="253">
+    <row customFormat="1" customHeight="1" ht="23.25" r="3" s="253">
       <c r="C3" s="246" t="inlineStr">
         <is>
           <t xml:space="preserve">22-  Unemployment rate by Age Group and Sex </t>
@@ -17092,7 +19045,7 @@
       <c r="U3" s="16" t="n"/>
       <c r="V3" s="16" t="n"/>
     </row>
-    <row r="4" ht="27.75" customHeight="1" s="285">
+    <row customHeight="1" ht="27.75" r="4" s="285">
       <c r="C4" s="97" t="inlineStr">
         <is>
           <t>Item</t>
@@ -17118,7 +19071,7 @@
       <c r="Q4" s="13" t="n"/>
       <c r="CJ4" s="4" t="n"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="285">
+    <row customHeight="1" ht="15.75" r="5" s="285">
       <c r="C5" s="97" t="n"/>
       <c r="D5" s="80" t="n"/>
       <c r="E5" s="74" t="n"/>
@@ -17148,7 +19101,7 @@
       <c r="AE5" s="7" t="n"/>
       <c r="AF5" s="7" t="n"/>
     </row>
-    <row r="6" ht="22.5" customHeight="1" s="285">
+    <row customHeight="1" ht="22.5" r="6" s="285">
       <c r="C6" s="97" t="n"/>
       <c r="D6" s="80" t="n"/>
       <c r="E6" s="74" t="n"/>
@@ -17171,7 +19124,7 @@
       <c r="N6" s="98" t="n"/>
       <c r="X6" s="117" t="n"/>
     </row>
-    <row r="7" ht="24" customHeight="1" s="285">
+    <row customHeight="1" ht="24" r="7" s="285">
       <c r="C7" s="97" t="n"/>
       <c r="D7" s="80" t="n"/>
       <c r="E7" s="76" t="n"/>
@@ -17241,7 +19194,7 @@
       <c r="AZ7" s="5" t="n"/>
       <c r="BA7" s="5" t="n"/>
     </row>
-    <row r="8" ht="31.5" customHeight="1" s="285">
+    <row customHeight="1" ht="31.5" r="8" s="285">
       <c r="C8" s="97" t="n"/>
       <c r="D8" s="80" t="n"/>
       <c r="E8" s="78" t="n"/>
@@ -17280,7 +19233,7 @@
       <c r="N8" s="98" t="n"/>
       <c r="X8" s="117" t="n"/>
     </row>
-    <row r="9" ht="18.75" customHeight="1" s="285" thickBot="1">
+    <row customHeight="1" ht="18.75" r="9" s="285" thickBot="1">
       <c r="C9" s="80" t="n"/>
       <c r="D9" s="80" t="n"/>
       <c r="E9" s="80" t="n"/>
@@ -17304,7 +19257,7 @@
       <c r="P9" s="118" t="n"/>
       <c r="X9" s="117" t="n"/>
     </row>
-    <row r="10" ht="21.75" customHeight="1" s="285" thickBot="1">
+    <row customHeight="1" ht="21.75" r="10" s="285" thickBot="1">
       <c r="C10" s="84" t="inlineStr">
         <is>
           <t>Age Group</t>
@@ -17341,7 +19294,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="21.75" customHeight="1" s="285" thickBot="1">
+    <row customHeight="1" ht="21.75" r="11" s="285" thickBot="1">
       <c r="C11" s="84" t="inlineStr">
         <is>
           <t xml:space="preserve"> 15 - 24</t>
@@ -17401,7 +19354,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="21.75" customHeight="1" s="285" thickBot="1">
+    <row customHeight="1" ht="21.75" r="12" s="285" thickBot="1">
       <c r="C12" s="84" t="inlineStr">
         <is>
           <t xml:space="preserve"> 25 - 29</t>
@@ -17459,7 +19412,7 @@
       <c r="AF12" s="117" t="n"/>
       <c r="AG12" s="124" t="n"/>
     </row>
-    <row r="13" ht="21.75" customHeight="1" s="285" thickBot="1">
+    <row customHeight="1" ht="21.75" r="13" s="285" thickBot="1">
       <c r="C13" s="84" t="inlineStr">
         <is>
           <t xml:space="preserve"> 30 - 34</t>
@@ -17806,7 +19759,7 @@
       </c>
       <c r="CP13" s="232" t="n"/>
     </row>
-    <row r="14" ht="21.75" customHeight="1" s="285" thickBot="1">
+    <row customHeight="1" ht="21.75" r="14" s="285" thickBot="1">
       <c r="C14" s="84" t="inlineStr">
         <is>
           <t xml:space="preserve"> 35 - 39</t>
@@ -18050,7 +20003,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="21.75" customHeight="1" s="285" thickBot="1">
+    <row customHeight="1" ht="21.75" r="15" s="285" thickBot="1">
       <c r="C15" s="221" t="inlineStr">
         <is>
           <t>40 and Above</t>
@@ -18167,7 +20120,7 @@
       <c r="CN15" s="128" t="n"/>
       <c r="CO15" s="3" t="n"/>
     </row>
-    <row r="16" ht="21.75" customFormat="1" customHeight="1" s="56" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="21.75" r="16" s="56" thickBot="1">
       <c r="C16" s="84" t="inlineStr">
         <is>
           <t xml:space="preserve">    Total</t>
@@ -18237,7 +20190,7 @@
       </c>
       <c r="AF16" s="132" t="n"/>
     </row>
-    <row r="17" ht="6" customFormat="1" customHeight="1" s="12">
+    <row customFormat="1" customHeight="1" ht="6" r="17" s="12">
       <c r="C17" s="17" t="n"/>
       <c r="D17" s="17" t="n"/>
       <c r="E17" s="134" t="n"/>
@@ -18268,7 +20221,7 @@
       <c r="AE17" s="136" t="n"/>
       <c r="AF17" s="136" t="n"/>
     </row>
-    <row r="18" ht="13.5" customFormat="1" customHeight="1" s="241">
+    <row customFormat="1" customHeight="1" ht="13.5" r="18" s="241">
       <c r="C18" s="240" t="inlineStr">
         <is>
           <t>*: Provisional</t>
@@ -18305,7 +20258,7 @@
       <c r="V18" s="30" t="n"/>
       <c r="X18" s="7" t="n"/>
     </row>
-    <row r="19" ht="29.25" customHeight="1" s="285">
+    <row customHeight="1" ht="29.25" r="19" s="285">
       <c r="C19" s="99" t="inlineStr">
         <is>
           <t>Source: NCSI</t>
@@ -18373,7 +20326,7 @@
       <c r="BA19" s="232" t="n"/>
       <c r="BB19" s="232" t="n"/>
     </row>
-    <row r="20" ht="29.25" customHeight="1" s="285">
+    <row customHeight="1" ht="29.25" r="20" s="285">
       <c r="C20" s="99" t="n"/>
       <c r="D20" s="45" t="n"/>
       <c r="E20" s="139" t="n"/>
@@ -18424,7 +20377,7 @@
       <c r="BA20" s="232" t="n"/>
       <c r="BB20" s="232" t="n"/>
     </row>
-    <row r="21" ht="23.25" customFormat="1" customHeight="1" s="253">
+    <row customFormat="1" customHeight="1" ht="23.25" r="21" s="253">
       <c r="C21" s="252" t="inlineStr">
         <is>
           <t>23- معدل الباحثين* عن عمل وفقاً للمستوى التعليمي</t>
@@ -18448,7 +20401,7 @@
       <c r="V21" s="16" t="n"/>
       <c r="X21" s="5" t="n"/>
     </row>
-    <row r="22" ht="23.25" customFormat="1" customHeight="1" s="253">
+    <row customFormat="1" customHeight="1" ht="23.25" r="22" s="253">
       <c r="C22" s="254" t="inlineStr">
         <is>
           <t xml:space="preserve">23- Unemployment rate by Education Status </t>
@@ -18472,7 +20425,7 @@
       <c r="V22" s="16" t="n"/>
       <c r="X22" s="234" t="n"/>
     </row>
-    <row r="23" ht="27.75" customHeight="1" s="285">
+    <row customHeight="1" ht="27.75" r="23" s="285">
       <c r="C23" s="250" t="inlineStr">
         <is>
           <t>Item</t>
@@ -18502,7 +20455,7 @@
       </c>
       <c r="CJ23" s="4" t="n"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1" s="285">
+    <row customHeight="1" ht="15.75" r="24" s="285">
       <c r="D24" s="32" t="n"/>
       <c r="E24" s="42" t="n"/>
       <c r="L24" s="39" t="n"/>
@@ -18536,7 +20489,7 @@
       <c r="AE24" s="7" t="n"/>
       <c r="AF24" s="7" t="n"/>
     </row>
-    <row r="25" ht="22.5" customHeight="1" s="285">
+    <row customHeight="1" ht="22.5" r="25" s="285">
       <c r="D25" s="32" t="n"/>
       <c r="E25" s="42" t="n"/>
       <c r="F25" s="231" t="inlineStr">
@@ -18563,7 +20516,7 @@
       </c>
       <c r="X25" s="117" t="n"/>
     </row>
-    <row r="26" ht="24" customHeight="1" s="285">
+    <row customHeight="1" ht="24" r="26" s="285">
       <c r="D26" s="32" t="n"/>
       <c r="E26" s="40" t="n"/>
       <c r="F26" s="100" t="inlineStr">
@@ -18642,7 +20595,7 @@
       <c r="BA26" s="5" t="n"/>
       <c r="BB26" s="5" t="n"/>
     </row>
-    <row r="27" ht="31.5" customHeight="1" s="285">
+    <row customHeight="1" ht="31.5" r="27" s="285">
       <c r="D27" s="32" t="n"/>
       <c r="E27" s="41" t="n"/>
       <c r="F27" s="101" t="inlineStr">
@@ -18692,7 +20645,7 @@
       </c>
       <c r="X27" s="117" t="n"/>
     </row>
-    <row r="28" ht="18.75" customHeight="1" s="285" thickBot="1">
+    <row customHeight="1" ht="18.75" r="28" s="285" thickBot="1">
       <c r="C28" s="32" t="n"/>
       <c r="D28" s="32" t="n"/>
       <c r="E28" s="32" t="n"/>
@@ -18725,7 +20678,7 @@
       </c>
       <c r="X28" s="136" t="n"/>
     </row>
-    <row r="29" ht="21.75" customHeight="1" s="285" thickBot="1">
+    <row customHeight="1" ht="21.75" r="29" s="285" thickBot="1">
       <c r="C29" s="51" t="inlineStr">
         <is>
           <t>Level of Educational</t>
@@ -18775,7 +20728,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="23.25" customHeight="1" s="285" thickBot="1">
+    <row customHeight="1" ht="23.25" r="30" s="285" thickBot="1">
       <c r="C30" s="51" t="inlineStr">
         <is>
           <t>Less then General Diploma</t>
@@ -18836,7 +20789,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="22.5" customHeight="1" s="285" thickBot="1">
+    <row customHeight="1" ht="22.5" r="31" s="285" thickBot="1">
       <c r="C31" s="51" t="inlineStr">
         <is>
           <t>General Diploma</t>
@@ -18892,7 +20845,7 @@
       <c r="AF31" s="117" t="n"/>
       <c r="AG31" s="124" t="n"/>
     </row>
-    <row r="32" ht="21.75" customHeight="1" s="285" thickBot="1">
+    <row customHeight="1" ht="21.75" r="32" s="285" thickBot="1">
       <c r="C32" s="51" t="inlineStr">
         <is>
           <t>University Diploma</t>
@@ -19239,7 +21192,7 @@
       </c>
       <c r="CP32" s="232" t="n"/>
     </row>
-    <row r="33" ht="21.75" customHeight="1" s="285" thickBot="1">
+    <row customHeight="1" ht="21.75" r="33" s="285" thickBot="1">
       <c r="C33" s="51" t="inlineStr">
         <is>
           <t>University</t>
@@ -19478,7 +21431,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="21.75" customHeight="1" s="285" thickBot="1">
+    <row customHeight="1" ht="21.75" r="34" s="285" thickBot="1">
       <c r="C34" s="51" t="inlineStr">
         <is>
           <t>Master Degree, ph.D</t>
@@ -19592,7 +21545,7 @@
       <c r="CN34" s="128" t="n"/>
       <c r="CO34" s="3" t="n"/>
     </row>
-    <row r="35" ht="21.75" customFormat="1" customHeight="1" s="56" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="21.75" r="35" s="56" thickBot="1">
       <c r="C35" s="109" t="inlineStr">
         <is>
           <t xml:space="preserve">    Total</t>
@@ -19653,7 +21606,7 @@
       </c>
       <c r="AF35" s="132" t="n"/>
     </row>
-    <row r="36" ht="27.75" customFormat="1" customHeight="1" s="12">
+    <row customFormat="1" customHeight="1" ht="27.75" r="36" s="12">
       <c r="C36" s="17" t="inlineStr">
         <is>
           <t>*: Unemployed persons devided by Labour Force</t>
@@ -19690,7 +21643,7 @@
       <c r="AE36" s="136" t="n"/>
       <c r="AF36" s="136" t="n"/>
     </row>
-    <row r="37" ht="13.5" customFormat="1" customHeight="1" s="241">
+    <row customFormat="1" customHeight="1" ht="13.5" r="37" s="241">
       <c r="C37" s="240" t="inlineStr">
         <is>
           <t>Source: NCSI</t>
@@ -19720,7 +21673,7 @@
       <c r="X37" s="234" t="n"/>
       <c r="Y37" s="234" t="n"/>
     </row>
-    <row r="38" ht="21.75" customHeight="1" s="285">
+    <row customHeight="1" ht="21.75" r="38" s="285">
       <c r="C38" s="242" t="n"/>
       <c r="I38" s="237" t="n"/>
       <c r="O38" s="117" t="n"/>
@@ -19741,7 +21694,7 @@
       <c r="AO38" s="10" t="n"/>
       <c r="AP38" s="10" t="n"/>
     </row>
-    <row r="39" ht="12.75" customHeight="1" s="285">
+    <row customHeight="1" ht="12.75" r="39" s="285">
       <c r="C39" s="11" t="n"/>
       <c r="D39" s="1" t="n"/>
       <c r="E39" s="144" t="n"/>
@@ -19756,7 +21709,7 @@
       <c r="N39" s="11" t="n"/>
       <c r="V39" s="234" t="n"/>
     </row>
-    <row r="40" ht="12.75" customHeight="1" s="285">
+    <row customHeight="1" ht="12.75" r="40" s="285">
       <c r="C40" s="11" t="n"/>
       <c r="D40" s="1" t="n"/>
       <c r="E40" s="144" t="n"/>
@@ -19775,7 +21728,7 @@
       <c r="U40" s="234" t="n"/>
       <c r="V40" s="234" t="n"/>
     </row>
-    <row r="41" ht="9.75" customHeight="1" s="285">
+    <row customHeight="1" ht="9.75" r="41" s="285">
       <c r="C41" s="11" t="n"/>
       <c r="D41" s="1" t="n"/>
       <c r="E41" s="144" t="n"/>
@@ -19791,12 +21744,12 @@
       <c r="T41" s="234" t="n"/>
       <c r="U41" s="234" t="n"/>
     </row>
-    <row r="42" ht="31.5" customHeight="1" s="285">
+    <row customHeight="1" ht="31.5" r="42" s="285">
       <c r="C42" s="233" t="n"/>
       <c r="R42" s="234" t="n"/>
       <c r="S42" s="234" t="n"/>
     </row>
-    <row r="43" ht="32.25" customHeight="1" s="285">
+    <row customHeight="1" ht="32.25" r="43" s="285">
       <c r="C43" s="11" t="n"/>
       <c r="D43" s="11" t="n"/>
       <c r="E43" s="11" t="n"/>
@@ -19814,7 +21767,7 @@
       <c r="R43" s="234" t="n"/>
       <c r="S43" s="234" t="n"/>
     </row>
-    <row r="44" ht="32.25" customHeight="1" s="285">
+    <row customHeight="1" ht="32.25" r="44" s="285">
       <c r="C44" s="11" t="n"/>
       <c r="D44" s="1" t="n"/>
       <c r="E44" s="144" t="n"/>
@@ -19824,7 +21777,7 @@
       <c r="M44" s="2" t="n"/>
       <c r="N44" s="11" t="n"/>
     </row>
-    <row r="45" ht="32.25" customHeight="1" s="285">
+    <row customHeight="1" ht="32.25" r="45" s="285">
       <c r="C45" s="11" t="n"/>
       <c r="D45" s="1" t="n"/>
       <c r="E45" s="144" t="n"/>
@@ -19834,7 +21787,7 @@
       <c r="M45" s="2" t="n"/>
       <c r="N45" s="11" t="n"/>
     </row>
-    <row r="46" ht="32.25" customHeight="1" s="285">
+    <row customHeight="1" ht="32.25" r="46" s="285">
       <c r="C46" s="11" t="n"/>
       <c r="D46" s="1" t="n"/>
       <c r="E46" s="144" t="n"/>
@@ -19847,7 +21800,7 @@
       <c r="L46" s="2" t="n"/>
       <c r="M46" s="2" t="n"/>
     </row>
-    <row r="47" ht="32.25" customHeight="1" s="285">
+    <row customHeight="1" ht="32.25" r="47" s="285">
       <c r="C47" s="11" t="n"/>
       <c r="D47" s="1" t="n"/>
       <c r="E47" s="144" t="n"/>
@@ -19874,7 +21827,7 @@
         </is>
       </c>
     </row>
-    <row r="48" ht="32.25" customHeight="1" s="285">
+    <row customHeight="1" ht="32.25" r="48" s="285">
       <c r="C48" s="11" t="n"/>
       <c r="D48" s="1" t="n"/>
       <c r="E48" s="144" t="n"/>
@@ -19902,7 +21855,7 @@
         </is>
       </c>
     </row>
-    <row r="49" ht="32.25" customHeight="1" s="285">
+    <row customHeight="1" ht="32.25" r="49" s="285">
       <c r="C49" s="11" t="n"/>
       <c r="D49" s="1" t="n"/>
       <c r="E49" s="144" t="n"/>
@@ -19912,7 +21865,7 @@
       <c r="M49" s="2" t="n"/>
       <c r="N49" s="11" t="n"/>
     </row>
-    <row r="50" ht="32.25" customHeight="1" s="285">
+    <row customHeight="1" ht="32.25" r="50" s="285">
       <c r="C50" s="11" t="n"/>
       <c r="D50" s="1" t="n"/>
       <c r="E50" s="144" t="n"/>
@@ -19924,7 +21877,7 @@
       <c r="M50" s="2" t="n"/>
       <c r="N50" s="11" t="n"/>
     </row>
-    <row r="51" ht="25.5" customHeight="1" s="285">
+    <row customHeight="1" ht="25.5" r="51" s="285">
       <c r="C51" s="11" t="n"/>
       <c r="D51" s="1" t="n"/>
       <c r="E51" s="144" t="n"/>
@@ -19938,7 +21891,7 @@
       <c r="M51" s="2" t="n"/>
       <c r="N51" s="11" t="n"/>
     </row>
-    <row r="52" ht="12.75" customHeight="1" s="285">
+    <row customHeight="1" ht="12.75" r="52" s="285">
       <c r="C52" s="11" t="n"/>
       <c r="D52" s="1" t="n"/>
       <c r="E52" s="144" t="n"/>
@@ -19952,7 +21905,7 @@
       <c r="M52" s="2" t="n"/>
       <c r="N52" s="11" t="n"/>
     </row>
-    <row r="53" ht="12.75" customHeight="1" s="285">
+    <row customHeight="1" ht="12.75" r="53" s="285">
       <c r="C53" s="11" t="n"/>
       <c r="D53" s="1" t="n"/>
       <c r="E53" s="144" t="n"/>
@@ -19966,7 +21919,7 @@
       <c r="M53" s="2" t="n"/>
       <c r="N53" s="11" t="n"/>
     </row>
-    <row r="54" ht="12.75" customHeight="1" s="285">
+    <row customHeight="1" ht="12.75" r="54" s="285">
       <c r="C54" s="11" t="n"/>
       <c r="D54" s="1" t="n"/>
       <c r="E54" s="144" t="n"/>
@@ -19981,7 +21934,7 @@
       <c r="N54" s="11" t="n"/>
       <c r="U54" s="38" t="n"/>
     </row>
-    <row r="55" ht="12.75" customHeight="1" s="285">
+    <row customHeight="1" ht="12.75" r="55" s="285">
       <c r="C55" s="11" t="n"/>
       <c r="D55" s="1" t="n"/>
       <c r="E55" s="144" t="n"/>
@@ -19995,7 +21948,7 @@
       <c r="M55" s="2" t="n"/>
       <c r="N55" s="11" t="n"/>
     </row>
-    <row r="56" ht="12.75" customHeight="1" s="285">
+    <row customHeight="1" ht="12.75" r="56" s="285">
       <c r="C56" s="11" t="n"/>
       <c r="D56" s="1" t="n"/>
       <c r="E56" s="144" t="n"/>
@@ -20009,7 +21962,7 @@
       <c r="M56" s="2" t="n"/>
       <c r="N56" s="11" t="n"/>
     </row>
-    <row r="57" ht="12.75" customHeight="1" s="285">
+    <row customHeight="1" ht="12.75" r="57" s="285">
       <c r="C57" s="11" t="n"/>
       <c r="D57" s="1" t="n"/>
       <c r="E57" s="144" t="n"/>
@@ -20019,7 +21972,7 @@
       <c r="M57" s="2" t="n"/>
       <c r="N57" s="11" t="n"/>
     </row>
-    <row r="58" ht="8.1" customHeight="1" s="285">
+    <row customHeight="1" ht="8.1" r="58" s="285">
       <c r="C58" s="1" t="n"/>
       <c r="D58" s="1" t="n"/>
       <c r="E58" s="144" t="n"/>
@@ -20035,7 +21988,7 @@
       <c r="U58" s="36" t="n"/>
       <c r="V58" s="36" t="n"/>
     </row>
-    <row r="59" ht="12.75" customHeight="1" s="285">
+    <row customHeight="1" ht="12.75" r="59" s="285">
       <c r="H59" s="3" t="n"/>
       <c r="T59" s="184" t="n"/>
       <c r="U59" s="184" t="n"/>
@@ -20065,7 +22018,7 @@
         </is>
       </c>
     </row>
-    <row r="60" ht="0.75" customHeight="1" s="285">
+    <row customHeight="1" ht="0.75" r="60" s="285">
       <c r="S60" s="184" t="n"/>
       <c r="T60" s="236" t="inlineStr">
         <is>
@@ -20097,7 +22050,7 @@
         </is>
       </c>
     </row>
-    <row r="61" ht="0.75" customHeight="1" s="285">
+    <row customHeight="1" ht="0.75" r="61" s="285">
       <c r="P61" s="184" t="n"/>
       <c r="Q61" s="184" t="n"/>
       <c r="R61" s="184" t="n"/>
@@ -20128,7 +22081,7 @@
         </is>
       </c>
     </row>
-    <row r="62" ht="12.75" customHeight="1" s="285">
+    <row customHeight="1" ht="12.75" r="62" s="285">
       <c r="P62" s="236" t="inlineStr">
         <is>
           <t xml:space="preserve"> معدل الباحثات عن عمل للاناث في شهر  يوليو 2020م</t>
@@ -20167,13 +22120,13 @@
         </is>
       </c>
     </row>
-    <row r="63" ht="65.25" customHeight="1" s="285">
+    <row customHeight="1" ht="65.25" r="63" s="285">
       <c r="S63" s="184" t="n"/>
     </row>
-    <row r="64" ht="12.75" customHeight="1" s="285">
+    <row customHeight="1" ht="12.75" r="64" s="285">
       <c r="S64" s="184" t="n"/>
     </row>
-    <row r="65" ht="12.75" customHeight="1" s="285">
+    <row customHeight="1" ht="12.75" r="65" s="285">
       <c r="S65" s="184" t="n"/>
     </row>
     <row r="66">
@@ -20351,7 +22304,7 @@
         </is>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1" s="285">
+    <row customHeight="1" ht="15.75" r="74" s="285">
       <c r="M74" s="232" t="n"/>
       <c r="N74" s="232" t="n"/>
       <c r="V74" s="234" t="n"/>
@@ -20384,7 +22337,7 @@
         </is>
       </c>
     </row>
-    <row r="75" ht="24.75" customHeight="1" s="285">
+    <row customHeight="1" ht="24.75" r="75" s="285">
       <c r="K75" s="9" t="n"/>
       <c r="L75" s="3" t="n"/>
       <c r="M75" s="9" t="n"/>
@@ -20420,7 +22373,7 @@
         </is>
       </c>
     </row>
-    <row r="76" ht="24.75" customHeight="1" s="285">
+    <row customHeight="1" ht="24.75" r="76" s="285">
       <c r="K76" s="9" t="n"/>
       <c r="L76" s="3" t="n"/>
       <c r="M76" s="9" t="n"/>
@@ -20454,7 +22407,7 @@
         </is>
       </c>
     </row>
-    <row r="77" ht="24.75" customHeight="1" s="285">
+    <row customHeight="1" ht="24.75" r="77" s="285">
       <c r="K77" s="9" t="n"/>
       <c r="L77" s="3" t="n"/>
       <c r="M77" s="9" t="n"/>
@@ -20491,7 +22444,7 @@
         </is>
       </c>
     </row>
-    <row r="78" ht="24.75" customHeight="1" s="285">
+    <row customHeight="1" ht="24.75" r="78" s="285">
       <c r="K78" s="9" t="n"/>
       <c r="L78" s="3" t="n"/>
       <c r="M78" s="9" t="n"/>
@@ -20524,7 +22477,7 @@
         </is>
       </c>
     </row>
-    <row r="79" ht="24.75" customHeight="1" s="285">
+    <row customHeight="1" ht="24.75" r="79" s="285">
       <c r="K79" s="9" t="n"/>
       <c r="L79" s="3" t="n"/>
       <c r="M79" s="9" t="n"/>
@@ -20545,7 +22498,7 @@
         </is>
       </c>
     </row>
-    <row r="80" ht="24.75" customHeight="1" s="285">
+    <row customHeight="1" ht="24.75" r="80" s="285">
       <c r="U80" s="234" t="n"/>
       <c r="V80" s="234" t="n"/>
       <c r="W80" s="126" t="n"/>
@@ -20566,7 +22519,7 @@
         </is>
       </c>
     </row>
-    <row r="81" ht="24.75" customHeight="1" s="285">
+    <row customHeight="1" ht="24.75" r="81" s="285">
       <c r="U81" s="234" t="n"/>
       <c r="V81" s="234" t="n"/>
       <c r="W81" s="126" t="n"/>
@@ -20578,7 +22531,7 @@
       <c r="AE81" s="9" t="n"/>
       <c r="AF81" s="232" t="n"/>
     </row>
-    <row r="82" ht="24.75" customHeight="1" s="285">
+    <row customHeight="1" ht="24.75" r="82" s="285">
       <c r="U82" s="234" t="n"/>
       <c r="V82" s="234" t="n"/>
       <c r="W82" s="126" t="n"/>
@@ -20590,7 +22543,7 @@
       <c r="AE82" s="9" t="n"/>
       <c r="AF82" s="232" t="n"/>
     </row>
-    <row r="83" ht="32.25" customHeight="1" s="285">
+    <row customHeight="1" ht="32.25" r="83" s="285">
       <c r="U83" s="234" t="n"/>
       <c r="V83" s="234" t="n"/>
       <c r="W83" s="126" t="n"/>
@@ -20602,7 +22555,7 @@
       <c r="AE83" s="9" t="n"/>
       <c r="AF83" s="232" t="n"/>
     </row>
-    <row r="84" ht="32.25" customHeight="1" s="285">
+    <row customHeight="1" ht="32.25" r="84" s="285">
       <c r="T84" s="234" t="n"/>
       <c r="U84" s="234" t="n"/>
       <c r="V84" s="234" t="n"/>
@@ -20614,7 +22567,7 @@
       <c r="AE84" s="9" t="n"/>
       <c r="AF84" s="232" t="n"/>
     </row>
-    <row r="85" ht="32.25" customHeight="1" s="285">
+    <row customHeight="1" ht="32.25" r="85" s="285">
       <c r="T85" s="234" t="n"/>
       <c r="U85" s="234" t="n"/>
       <c r="V85" s="234" t="n"/>
@@ -20626,7 +22579,7 @@
       <c r="AE85" s="9" t="n"/>
       <c r="AF85" s="232" t="n"/>
     </row>
-    <row r="86" ht="32.25" customHeight="1" s="285">
+    <row customHeight="1" ht="32.25" r="86" s="285">
       <c r="T86" s="234" t="n"/>
       <c r="U86" s="234" t="n"/>
       <c r="V86" s="234" t="n"/>
@@ -20638,7 +22591,7 @@
       <c r="AE86" s="9" t="n"/>
       <c r="AF86" s="232" t="n"/>
     </row>
-    <row r="87" ht="32.25" customHeight="1" s="285">
+    <row customHeight="1" ht="32.25" r="87" s="285">
       <c r="T87" s="234" t="n"/>
       <c r="U87" s="234" t="n"/>
       <c r="V87" s="234" t="n"/>
@@ -20649,7 +22602,7 @@
       <c r="AE87" s="9" t="n"/>
       <c r="AF87" s="232" t="n"/>
     </row>
-    <row r="88" ht="32.25" customHeight="1" s="285">
+    <row customHeight="1" ht="32.25" r="88" s="285">
       <c r="T88" s="234" t="n"/>
       <c r="U88" s="234" t="n"/>
       <c r="V88" s="234" t="n"/>
@@ -20660,26 +22613,26 @@
       <c r="AE88" s="9" t="n"/>
       <c r="AF88" s="232" t="n"/>
     </row>
-    <row r="89" ht="32.25" customHeight="1" s="285">
+    <row customHeight="1" ht="32.25" r="89" s="285">
       <c r="T89" s="234" t="n"/>
       <c r="U89" s="234" t="n"/>
       <c r="V89" s="234" t="n"/>
       <c r="X89" s="53" t="n"/>
     </row>
-    <row r="90" ht="32.25" customHeight="1" s="285">
+    <row customHeight="1" ht="32.25" r="90" s="285">
       <c r="T90" s="234" t="n"/>
       <c r="U90" s="234" t="n"/>
       <c r="X90" s="53" t="n"/>
     </row>
-    <row r="91" ht="32.25" customHeight="1" s="285">
+    <row customHeight="1" ht="32.25" r="91" s="285">
       <c r="X91" s="53" t="n"/>
       <c r="AA91" s="232" t="n"/>
     </row>
-    <row r="92" ht="32.25" customHeight="1" s="285">
+    <row customHeight="1" ht="32.25" r="92" s="285">
       <c r="W92" s="53" t="n"/>
       <c r="X92" s="25" t="n"/>
     </row>
-    <row r="93" ht="32.25" customHeight="1" s="285">
+    <row customHeight="1" ht="32.25" r="93" s="285">
       <c r="W93" s="53" t="n"/>
       <c r="X93" s="152" t="n"/>
       <c r="AG93" s="232" t="n"/>
@@ -20691,7 +22644,7 @@
       <c r="AN93" s="232" t="n"/>
       <c r="AO93" s="232" t="n"/>
     </row>
-    <row r="94" ht="24.75" customHeight="1" s="285">
+    <row customHeight="1" ht="24.75" r="94" s="285">
       <c r="V94" s="53" t="n"/>
       <c r="W94" s="53" t="n"/>
       <c r="X94" s="153" t="n"/>
@@ -20705,7 +22658,7 @@
       <c r="AO94" s="151" t="n"/>
       <c r="AP94" s="232" t="n"/>
     </row>
-    <row r="95" ht="24.75" customHeight="1" s="285">
+    <row customHeight="1" ht="24.75" r="95" s="285">
       <c r="T95" s="53" t="n"/>
       <c r="U95" s="53" t="n"/>
       <c r="V95" s="53" t="n"/>
@@ -20722,7 +22675,7 @@
       <c r="AO95" s="151" t="n"/>
       <c r="AP95" s="232" t="n"/>
     </row>
-    <row r="96" ht="23.25" customHeight="1" s="285">
+    <row customHeight="1" ht="23.25" r="96" s="285">
       <c r="T96" s="53" t="n"/>
       <c r="U96" s="53" t="n"/>
       <c r="V96" s="53" t="n"/>
@@ -20739,7 +22692,7 @@
       <c r="AO96" s="151" t="n"/>
       <c r="AP96" s="232" t="n"/>
     </row>
-    <row r="97" ht="12" customHeight="1" s="285">
+    <row customHeight="1" ht="12" r="97" s="285">
       <c r="T97" s="53" t="n"/>
       <c r="U97" s="53" t="n"/>
       <c r="V97" s="25" t="n"/>
@@ -20760,7 +22713,7 @@
       <c r="AO97" s="9" t="n"/>
       <c r="AP97" s="232" t="n"/>
     </row>
-    <row r="98" ht="12" customHeight="1" s="285">
+    <row customHeight="1" ht="12" r="98" s="285">
       <c r="T98" s="25" t="n"/>
       <c r="U98" s="25" t="n"/>
       <c r="V98" s="152" t="n"/>
@@ -20781,7 +22734,7 @@
       <c r="AO98" s="9" t="n"/>
       <c r="AP98" s="232" t="n"/>
     </row>
-    <row r="99" ht="12" customHeight="1" s="285">
+    <row customHeight="1" ht="12" r="99" s="285">
       <c r="T99" s="154" t="n"/>
       <c r="U99" s="155" t="n"/>
       <c r="V99" s="152" t="n"/>
@@ -20802,7 +22755,7 @@
       <c r="AO99" s="9" t="n"/>
       <c r="AP99" s="232" t="n"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1" s="285">
+    <row customHeight="1" ht="15.75" r="100" s="285">
       <c r="T100" s="154" t="n"/>
       <c r="U100" s="155" t="n"/>
       <c r="V100" s="152" t="n"/>
@@ -20823,7 +22776,7 @@
       <c r="AO100" s="9" t="n"/>
       <c r="AP100" s="232" t="n"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1" s="285">
+    <row customHeight="1" ht="15.75" r="101" s="285">
       <c r="T101" s="154" t="n"/>
       <c r="U101" s="155" t="n"/>
       <c r="V101" s="152" t="n"/>
@@ -20844,7 +22797,7 @@
       <c r="AO101" s="9" t="n"/>
       <c r="AP101" s="232" t="n"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1" s="285">
+    <row customHeight="1" ht="15.75" r="102" s="285">
       <c r="T102" s="154" t="n"/>
       <c r="U102" s="155" t="n"/>
       <c r="V102" s="152" t="n"/>
@@ -20865,7 +22818,7 @@
       <c r="AO102" s="9" t="n"/>
       <c r="AP102" s="232" t="n"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1" s="285">
+    <row customHeight="1" ht="15.75" r="103" s="285">
       <c r="T103" s="154" t="n"/>
       <c r="U103" s="155" t="n"/>
       <c r="V103" s="152" t="n"/>
@@ -20882,7 +22835,7 @@
       <c r="AO103" s="9" t="n"/>
       <c r="AP103" s="232" t="n"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1" s="285">
+    <row customHeight="1" ht="15.75" r="104" s="285">
       <c r="T104" s="154" t="n"/>
       <c r="U104" s="155" t="n"/>
       <c r="V104" s="152" t="n"/>
@@ -20899,7 +22852,7 @@
       <c r="AO104" s="9" t="n"/>
       <c r="AP104" s="232" t="n"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1" s="285">
+    <row customHeight="1" ht="15.75" r="105" s="285">
       <c r="T105" s="154" t="n"/>
       <c r="U105" s="155" t="n"/>
       <c r="V105" s="152" t="n"/>
@@ -20919,7 +22872,7 @@
       <c r="AO105" s="9" t="n"/>
       <c r="AP105" s="232" t="n"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1" s="285">
+    <row customHeight="1" ht="15.75" r="106" s="285">
       <c r="T106" s="154" t="n"/>
       <c r="U106" s="155" t="n"/>
       <c r="V106" s="152" t="n"/>
@@ -20930,7 +22883,7 @@
       <c r="AA106" s="24" t="n"/>
       <c r="AB106" s="25" t="n"/>
     </row>
-    <row r="107" ht="23.25" customHeight="1" s="285">
+    <row customHeight="1" ht="23.25" r="107" s="285">
       <c r="T107" s="154" t="n"/>
       <c r="U107" s="156" t="n"/>
       <c r="V107" s="152" t="n"/>
@@ -20941,7 +22894,7 @@
       <c r="AA107" s="24" t="n"/>
       <c r="AB107" s="25" t="n"/>
     </row>
-    <row r="108" ht="23.25" customHeight="1" s="285">
+    <row customHeight="1" ht="23.25" r="108" s="285">
       <c r="T108" s="27" t="n"/>
       <c r="U108" s="157" t="n"/>
       <c r="V108" s="152" t="n"/>
@@ -20952,7 +22905,7 @@
       <c r="AA108" s="26" t="n"/>
       <c r="AB108" s="25" t="n"/>
     </row>
-    <row r="109" ht="23.25" customHeight="1" s="285">
+    <row customHeight="1" ht="23.25" r="109" s="285">
       <c r="T109" s="157" t="n"/>
       <c r="U109" s="157" t="n"/>
       <c r="V109" s="152" t="n"/>
@@ -20963,7 +22916,7 @@
       <c r="AA109" s="24" t="n"/>
       <c r="AB109" s="25" t="n"/>
     </row>
-    <row r="110" ht="23.25" customHeight="1" s="285">
+    <row customHeight="1" ht="23.25" r="110" s="285">
       <c r="T110" s="157" t="n"/>
       <c r="U110" s="157" t="n"/>
       <c r="V110" s="14" t="n"/>
@@ -20974,7 +22927,7 @@
       <c r="AA110" s="28" t="n"/>
       <c r="AB110" s="23" t="n"/>
     </row>
-    <row r="111" ht="23.25" customHeight="1" s="285">
+    <row customHeight="1" ht="23.25" r="111" s="285">
       <c r="T111" s="14" t="n"/>
       <c r="U111" s="14" t="n"/>
       <c r="V111" s="14" t="n"/>
@@ -20985,7 +22938,7 @@
       <c r="AA111" s="28" t="n"/>
       <c r="AB111" s="23" t="n"/>
     </row>
-    <row r="112" ht="23.25" customHeight="1" s="285">
+    <row customHeight="1" ht="23.25" r="112" s="285">
       <c r="T112" s="14" t="n"/>
       <c r="U112" s="14" t="n"/>
       <c r="V112" s="53" t="n"/>
@@ -20996,7 +22949,7 @@
       <c r="AA112" s="28" t="n"/>
       <c r="AB112" s="23" t="n"/>
     </row>
-    <row r="113" ht="23.25" customHeight="1" s="285">
+    <row customHeight="1" ht="23.25" r="113" s="285">
       <c r="T113" s="53" t="n"/>
       <c r="U113" s="53" t="n"/>
       <c r="V113" s="53" t="n"/>
@@ -21007,7 +22960,7 @@
       <c r="AA113" s="14" t="n"/>
       <c r="AB113" s="14" t="n"/>
     </row>
-    <row r="114" ht="23.25" customHeight="1" s="285">
+    <row customHeight="1" ht="23.25" r="114" s="285">
       <c r="T114" s="53" t="n"/>
       <c r="U114" s="53" t="n"/>
       <c r="V114" s="53" t="n"/>
@@ -21018,7 +22971,7 @@
       <c r="AA114" s="14" t="n"/>
       <c r="AB114" s="14" t="n"/>
     </row>
-    <row r="115" ht="12" customHeight="1" s="285">
+    <row customHeight="1" ht="12" r="115" s="285">
       <c r="T115" s="53" t="n"/>
       <c r="U115" s="53" t="n"/>
       <c r="V115" s="25" t="n"/>
@@ -21029,7 +22982,7 @@
       <c r="AA115" s="53" t="n"/>
       <c r="AB115" s="53" t="n"/>
     </row>
-    <row r="116" ht="12" customHeight="1" s="285">
+    <row customHeight="1" ht="12" r="116" s="285">
       <c r="T116" s="25" t="n"/>
       <c r="U116" s="25" t="n"/>
       <c r="V116" s="152" t="n"/>
@@ -21040,7 +22993,7 @@
       <c r="AA116" s="53" t="n"/>
       <c r="AB116" s="53" t="n"/>
     </row>
-    <row r="117" ht="12" customHeight="1" s="285">
+    <row customHeight="1" ht="12" r="117" s="285">
       <c r="T117" s="154" t="n"/>
       <c r="U117" s="155" t="n"/>
       <c r="V117" s="152" t="n"/>
@@ -21051,7 +23004,7 @@
       <c r="AA117" s="53" t="n"/>
       <c r="AB117" s="53" t="n"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1" s="285">
+    <row customHeight="1" ht="15.75" r="118" s="285">
       <c r="T118" s="154" t="n"/>
       <c r="U118" s="155" t="n"/>
       <c r="V118" s="152" t="n"/>
@@ -21062,7 +23015,7 @@
       <c r="AA118" s="25" t="n"/>
       <c r="AB118" s="14" t="n"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1" s="285">
+    <row customHeight="1" ht="15.75" r="119" s="285">
       <c r="T119" s="154" t="n"/>
       <c r="U119" s="155" t="n"/>
       <c r="V119" s="152" t="n"/>
@@ -21073,7 +23026,7 @@
       <c r="AA119" s="153" t="n"/>
       <c r="AB119" s="23" t="n"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1" s="285">
+    <row customHeight="1" ht="15.75" r="120" s="285">
       <c r="T120" s="154" t="n"/>
       <c r="U120" s="155" t="n"/>
       <c r="V120" s="152" t="n"/>
@@ -21084,7 +23037,7 @@
       <c r="AA120" s="153" t="n"/>
       <c r="AB120" s="23" t="n"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1" s="285">
+    <row customHeight="1" ht="15.75" r="121" s="285">
       <c r="T121" s="154" t="n"/>
       <c r="U121" s="155" t="n"/>
       <c r="V121" s="152" t="n"/>
@@ -21095,7 +23048,7 @@
       <c r="AA121" s="153" t="n"/>
       <c r="AB121" s="23" t="n"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1" s="285">
+    <row customHeight="1" ht="15.75" r="122" s="285">
       <c r="T122" s="154" t="n"/>
       <c r="U122" s="155" t="n"/>
       <c r="V122" s="152" t="n"/>
@@ -21106,7 +23059,7 @@
       <c r="AA122" s="24" t="n"/>
       <c r="AB122" s="25" t="n"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1" s="285">
+    <row customHeight="1" ht="15.75" r="123" s="285">
       <c r="T123" s="154" t="n"/>
       <c r="U123" s="155" t="n"/>
       <c r="V123" s="152" t="n"/>
@@ -21116,7 +23069,7 @@
       <c r="AA123" s="24" t="n"/>
       <c r="AB123" s="25" t="n"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1" s="285">
+    <row customHeight="1" ht="15.75" r="124" s="285">
       <c r="T124" s="154" t="n"/>
       <c r="U124" s="155" t="n"/>
       <c r="V124" s="152" t="n"/>
@@ -21126,7 +23079,7 @@
       <c r="AA124" s="24" t="n"/>
       <c r="AB124" s="25" t="n"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1" s="285">
+    <row customHeight="1" ht="15.75" r="125" s="285">
       <c r="T125" s="154" t="n"/>
       <c r="U125" s="156" t="n"/>
       <c r="V125" s="152" t="n"/>
@@ -21136,7 +23089,7 @@
       <c r="AA125" s="24" t="n"/>
       <c r="AB125" s="25" t="n"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1" s="285">
+    <row customHeight="1" ht="15.75" r="126" s="285">
       <c r="T126" s="27" t="n"/>
       <c r="U126" s="157" t="n"/>
       <c r="V126" s="152" t="n"/>
@@ -21145,7 +23098,7 @@
       <c r="AA126" s="26" t="n"/>
       <c r="AB126" s="25" t="n"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1" s="285">
+    <row customHeight="1" ht="15.75" r="127" s="285">
       <c r="T127" s="157" t="n"/>
       <c r="U127" s="157" t="n"/>
       <c r="V127" s="152" t="n"/>
@@ -21154,7 +23107,7 @@
       <c r="AA127" s="24" t="n"/>
       <c r="AB127" s="25" t="n"/>
     </row>
-    <row r="128" ht="12.75" customHeight="1" s="285">
+    <row customHeight="1" ht="12.75" r="128" s="285">
       <c r="T128" s="157" t="n"/>
       <c r="U128" s="157" t="n"/>
       <c r="Y128" s="22" t="n"/>
@@ -21162,12 +23115,12 @@
       <c r="AA128" s="28" t="n"/>
       <c r="AB128" s="23" t="n"/>
     </row>
-    <row r="129" ht="12.75" customHeight="1" s="285">
+    <row customHeight="1" ht="12.75" r="129" s="285">
       <c r="Z129" s="28" t="n"/>
       <c r="AA129" s="28" t="n"/>
       <c r="AB129" s="23" t="n"/>
     </row>
-    <row r="130" ht="12.75" customHeight="1" s="285">
+    <row customHeight="1" ht="12.75" r="130" s="285">
       <c r="Z130" s="28" t="n"/>
       <c r="AA130" s="28" t="n"/>
       <c r="AB130" s="23" t="n"/>
@@ -21204,7 +23157,7 @@
     <mergeCell ref="N23:N27"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.3149606299212598" bottom="0" header="0.3149606299212598" footer="0.2362204724409449"/>
+  <pageMargins bottom="0" footer="0.2362204724409449" header="0.3149606299212598" left="0" right="0" top="0.3149606299212598"/>
   <pageSetup orientation="portrait" paperSize="9" scale="72"/>
 </worksheet>
 </file>
@@ -21223,16 +23176,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="18.75"/>
   <cols>
-    <col width="13.28515625" customWidth="1" style="71" min="1" max="1"/>
-    <col width="19.140625" customWidth="1" style="71" min="2" max="3"/>
-    <col width="21.140625" customWidth="1" style="71" min="4" max="4"/>
-    <col width="16.28515625" customWidth="1" style="71" min="5" max="5"/>
-    <col width="18.85546875" customWidth="1" style="71" min="6" max="6"/>
-    <col width="20.5703125" customWidth="1" style="177" min="7" max="7"/>
-    <col width="14.28515625" customWidth="1" style="177" min="8" max="8"/>
-    <col width="20.7109375" customWidth="1" style="177" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="177" min="10" max="11"/>
-    <col width="9.140625" customWidth="1" style="177" min="12" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="71" width="13.28515625"/>
+    <col customWidth="1" max="3" min="2" style="71" width="19.140625"/>
+    <col customWidth="1" max="4" min="4" style="71" width="21.140625"/>
+    <col customWidth="1" max="5" min="5" style="71" width="16.28515625"/>
+    <col customWidth="1" max="6" min="6" style="71" width="18.85546875"/>
+    <col customWidth="1" max="7" min="7" style="177" width="20.5703125"/>
+    <col customWidth="1" max="8" min="8" style="177" width="14.28515625"/>
+    <col customWidth="1" max="9" min="9" style="177" width="20.7109375"/>
+    <col customWidth="1" max="11" min="10" style="177" width="9.140625"/>
+    <col customWidth="1" max="16384" min="12" style="177" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -24932,7 +26885,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I85"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
@@ -24945,26 +26898,26 @@
   </sheetPr>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70">
       <selection activeCell="D4" sqref="D4:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="18"/>
   <cols>
-    <col width="32.85546875" customWidth="1" style="186" min="1" max="1"/>
-    <col hidden="1" width="0.5703125" customWidth="1" style="186" min="2" max="3"/>
-    <col width="9.5703125" customWidth="1" style="185" min="4" max="4"/>
-    <col width="10.5703125" customWidth="1" style="185" min="5" max="5"/>
-    <col width="10.140625" customWidth="1" style="185" min="6" max="6"/>
-    <col width="9.5703125" customWidth="1" style="185" min="7" max="7"/>
-    <col width="10.7109375" customWidth="1" style="185" min="8" max="8"/>
-    <col width="11" customWidth="1" style="185" min="9" max="9"/>
-    <col hidden="1" width="0.5703125" customWidth="1" style="186" min="10" max="10"/>
-    <col width="29" customWidth="1" style="186" min="11" max="11"/>
-    <col width="8.85546875" customWidth="1" style="234" min="12" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="186" width="32.85546875"/>
+    <col customWidth="1" hidden="1" max="3" min="2" style="186" width="0.5703125"/>
+    <col customWidth="1" max="4" min="4" style="185" width="9.5703125"/>
+    <col customWidth="1" max="5" min="5" style="185" width="10.5703125"/>
+    <col customWidth="1" max="6" min="6" style="185" width="10.140625"/>
+    <col customWidth="1" max="7" min="7" style="185" width="9.5703125"/>
+    <col customWidth="1" max="8" min="8" style="185" width="10.7109375"/>
+    <col customWidth="1" max="9" min="9" style="185" width="11"/>
+    <col customWidth="1" hidden="1" max="10" min="10" style="186" width="0.5703125"/>
+    <col customWidth="1" max="11" min="11" style="186" width="29"/>
+    <col customWidth="1" max="16384" min="12" style="234" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customFormat="1" customHeight="1" s="253">
+    <row customFormat="1" customHeight="1" ht="27" r="1" s="253">
       <c r="A1" s="265" t="inlineStr">
         <is>
           <t>22- معدل الباحثين عن عمل حسب فئات السن والجنس</t>
@@ -24981,7 +26934,7 @@
       <c r="J1" s="289" t="n"/>
       <c r="K1" s="290" t="n"/>
     </row>
-    <row r="2" ht="27.75" customFormat="1" customHeight="1" s="253" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="27.75" r="2" s="253" thickBot="1">
       <c r="A2" s="268" t="inlineStr">
         <is>
           <t xml:space="preserve">22-  Unemployment rate by Age Group and Sex </t>
@@ -24998,7 +26951,7 @@
       <c r="J2" s="291" t="n"/>
       <c r="K2" s="292" t="n"/>
     </row>
-    <row r="3" ht="5.1" customFormat="1" customHeight="1" s="253" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="5.1" r="3" s="253" thickBot="1">
       <c r="A3" s="189" t="n"/>
       <c r="B3" s="190" t="n"/>
       <c r="C3" s="190" t="n"/>
@@ -25011,7 +26964,7 @@
       <c r="J3" s="190" t="n"/>
       <c r="K3" s="192" t="n"/>
     </row>
-    <row r="4" ht="19.5" customHeight="1" s="285" thickBot="1">
+    <row customHeight="1" ht="19.5" r="4" s="285" thickBot="1">
       <c r="A4" s="271" t="inlineStr">
         <is>
           <t>Item</t>
@@ -25034,7 +26987,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="11.25" customHeight="1" s="285" thickBot="1">
+    <row customHeight="1" ht="11.25" r="5" s="285" thickBot="1">
       <c r="A5" s="293" t="n"/>
       <c r="B5" s="193" t="n"/>
       <c r="C5" s="194" t="n"/>
@@ -25047,7 +27000,7 @@
       <c r="J5" s="195" t="n"/>
       <c r="K5" s="293" t="n"/>
     </row>
-    <row r="6" ht="22.5" customHeight="1" s="285" thickBot="1">
+    <row customHeight="1" ht="22.5" r="6" s="285" thickBot="1">
       <c r="A6" s="293" t="n"/>
       <c r="B6" s="193" t="n"/>
       <c r="C6" s="194" t="n"/>
@@ -25068,7 +27021,7 @@
       <c r="J6" s="195" t="n"/>
       <c r="K6" s="293" t="n"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1" s="285">
+    <row customHeight="1" ht="14.25" r="7" s="285">
       <c r="A7" s="293" t="n"/>
       <c r="B7" s="193" t="n"/>
       <c r="C7" s="196" t="n"/>
@@ -25105,7 +27058,7 @@
       <c r="J7" s="195" t="n"/>
       <c r="K7" s="293" t="n"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1" s="285">
+    <row customHeight="1" ht="14.25" r="8" s="285">
       <c r="A8" s="297" t="n"/>
       <c r="B8" s="193" t="n"/>
       <c r="C8" s="193" t="n"/>
@@ -25142,7 +27095,7 @@
       <c r="J8" s="195" t="n"/>
       <c r="K8" s="297" t="n"/>
     </row>
-    <row r="9" ht="25.5" customHeight="1" s="285">
+    <row customHeight="1" ht="25.5" r="9" s="285">
       <c r="A9" s="201" t="n"/>
       <c r="B9" s="201" t="n"/>
       <c r="C9" s="201" t="n"/>
@@ -25163,7 +27116,7 @@
       <c r="J9" s="203" t="n"/>
       <c r="K9" s="202" t="n"/>
     </row>
-    <row r="10" ht="27" customHeight="1" s="285">
+    <row customHeight="1" ht="27" r="10" s="285">
       <c r="A10" s="204" t="inlineStr">
         <is>
           <t>Age Group</t>
@@ -25184,7 +27137,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="27" customHeight="1" s="285">
+    <row customHeight="1" ht="27" r="11" s="285">
       <c r="A11" s="204" t="inlineStr">
         <is>
           <t xml:space="preserve"> 15 - 24</t>
@@ -25217,7 +27170,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="27" customHeight="1" s="285">
+    <row customHeight="1" ht="27" r="12" s="285">
       <c r="A12" s="204" t="inlineStr">
         <is>
           <t xml:space="preserve"> 25 - 29</t>
@@ -25252,7 +27205,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="27" customHeight="1" s="285">
+    <row customHeight="1" ht="27" r="13" s="285">
       <c r="A13" s="204" t="inlineStr">
         <is>
           <t xml:space="preserve"> 30 - 34</t>
@@ -25285,7 +27238,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="27" customHeight="1" s="285">
+    <row customHeight="1" ht="27" r="14" s="285">
       <c r="A14" s="204" t="inlineStr">
         <is>
           <t xml:space="preserve"> 35 - 39</t>
@@ -25318,7 +27271,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="27" customHeight="1" s="285">
+    <row customHeight="1" ht="27" r="15" s="285">
       <c r="A15" s="204" t="inlineStr">
         <is>
           <t>40 and Above</t>
@@ -25351,7 +27304,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="27" customFormat="1" customHeight="1" s="56">
+    <row customFormat="1" customHeight="1" ht="27" r="16" s="56">
       <c r="A16" s="204" t="inlineStr">
         <is>
           <t xml:space="preserve">    Total</t>
@@ -25384,7 +27337,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="21.75" customFormat="1" customHeight="1" s="241">
+    <row customFormat="1" customHeight="1" ht="21.75" r="17" s="241">
       <c r="A17" s="261" t="inlineStr">
         <is>
           <t>*: Provisional</t>
@@ -25396,7 +27349,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="21" customFormat="1" customHeight="1" s="241">
+    <row customFormat="1" customHeight="1" ht="21" r="18" s="241">
       <c r="A18" s="261" t="inlineStr">
         <is>
           <t>Source: NCSI</t>
@@ -25423,7 +27376,7 @@
     <mergeCell ref="G6:I6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.31496062992126" bottom="0" header="0.31496062992126" footer="0.236220472440945"/>
+  <pageMargins bottom="0" footer="0.236220472440945" header="0.31496062992126" left="0" right="0" top="0.31496062992126"/>
   <pageSetup orientation="portrait" paperSize="9" scale="71"/>
 </worksheet>
 </file>
@@ -25442,20 +27395,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="27.140625" customWidth="1" style="285" min="1" max="1"/>
-    <col width="18" customWidth="1" style="285" min="2" max="2"/>
-    <col width="18.5703125" customWidth="1" style="285" min="3" max="3"/>
-    <col width="23.85546875" customWidth="1" style="285" min="4" max="4"/>
-    <col width="22" customWidth="1" style="285" min="5" max="5"/>
-    <col width="17.85546875" customWidth="1" style="285" min="6" max="6"/>
-    <col width="14.85546875" customWidth="1" style="285" min="7" max="7"/>
-    <col width="20.5703125" customWidth="1" style="285" min="8" max="8"/>
-    <col width="9.140625" customWidth="1" style="285" min="9" max="9"/>
-    <col width="12.28515625" bestFit="1" customWidth="1" style="285" min="10" max="10"/>
-    <col width="9.140625" customWidth="1" style="285" min="11" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="285" width="27.140625"/>
+    <col customWidth="1" max="2" min="2" style="285" width="18"/>
+    <col customWidth="1" max="3" min="3" style="285" width="18.5703125"/>
+    <col customWidth="1" max="4" min="4" style="285" width="23.85546875"/>
+    <col customWidth="1" max="5" min="5" style="285" width="22"/>
+    <col customWidth="1" max="6" min="6" style="285" width="17.85546875"/>
+    <col customWidth="1" max="7" min="7" style="285" width="14.85546875"/>
+    <col customWidth="1" max="8" min="8" style="285" width="20.5703125"/>
+    <col customWidth="1" max="9" min="9" style="285" width="9.140625"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="285" width="12.28515625"/>
+    <col customWidth="1" max="16384" min="11" style="285" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="1" s="285">
       <c r="A1" s="173" t="inlineStr">
         <is>
           <t>Data</t>
@@ -25463,7 +27416,7 @@
       </c>
       <c r="C1" s="67" t="n"/>
     </row>
-    <row r="2" ht="21" customHeight="1" s="285">
+    <row customHeight="1" ht="21" r="2" s="285">
       <c r="A2" t="inlineStr">
         <is>
           <t>Age Group الفئة العمرية</t>
@@ -25481,7 +27434,7 @@
       </c>
       <c r="D2" s="284" t="n"/>
     </row>
-    <row r="3" ht="20.25" customHeight="1" s="285">
+    <row customHeight="1" ht="20.25" r="3" s="285">
       <c r="A3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 15 - 24</t>
@@ -25495,7 +27448,7 @@
       </c>
       <c r="D3" s="286" t="n"/>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="4" s="285">
       <c r="A4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 25 - 29</t>
@@ -25511,7 +27464,7 @@
       </c>
       <c r="J4" s="171" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="285">
+    <row customHeight="1" ht="15" r="5" s="285">
       <c r="A5" t="inlineStr">
         <is>
           <t xml:space="preserve"> 30 - 34</t>
@@ -25524,7 +27477,7 @@
         <v>2.023427112952845</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="6" s="285">
       <c r="A6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 35 - 39</t>
@@ -25538,7 +27491,7 @@
       </c>
       <c r="J6" s="172" t="n"/>
     </row>
-    <row r="7" ht="15" customHeight="1" s="285">
+    <row customHeight="1" ht="15" r="7" s="285">
       <c r="A7" t="inlineStr">
         <is>
           <t>40 and Above  40 فـأعلـــى</t>
@@ -25551,7 +27504,7 @@
         <v>0.03121774986702148</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="285">
+    <row customHeight="1" ht="15" r="8" s="285">
       <c r="J8" s="174" t="n"/>
     </row>
   </sheetData>
@@ -25559,7 +27512,7 @@
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -25571,25 +27524,25 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="115">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="23.85546875" customWidth="1" style="285" min="1" max="1"/>
-    <col width="22" customWidth="1" style="285" min="2" max="2"/>
-    <col width="17.85546875" customWidth="1" style="285" min="3" max="3"/>
-    <col width="14.85546875" customWidth="1" style="285" min="4" max="4"/>
+    <col customWidth="1" max="1" min="1" style="285" width="23.85546875"/>
+    <col customWidth="1" max="2" min="2" style="285" width="22"/>
+    <col customWidth="1" max="3" min="3" style="285" width="17.85546875"/>
+    <col customWidth="1" max="4" min="4" style="285" width="14.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" s="285"/>
-    <row r="2" ht="15" customHeight="1" s="285"/>
-    <row r="3" ht="18.75" customHeight="1" s="285"/>
-    <row r="4" ht="15" customHeight="1" s="285"/>
-    <row r="5" ht="15" customHeight="1" s="285"/>
+    <row customHeight="1" ht="18.75" r="1" s="285"/>
+    <row customHeight="1" ht="15" r="2" s="285"/>
+    <row customHeight="1" ht="18.75" r="3" s="285"/>
+    <row customHeight="1" ht="15" r="4" s="285"/>
+    <row customHeight="1" ht="15" r="5" s="285"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" scale="92"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -25609,21 +27562,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="18.75"/>
   <cols>
-    <col width="20.7109375" customWidth="1" style="177" min="1" max="1"/>
-    <col width="0.5703125" customWidth="1" style="177" min="2" max="2"/>
-    <col width="10.7109375" customWidth="1" style="177" min="3" max="3"/>
-    <col width="0.5703125" customWidth="1" style="177" min="4" max="4"/>
-    <col width="20.7109375" customWidth="1" style="177" min="5" max="5"/>
-    <col width="2.42578125" customWidth="1" style="177" min="6" max="6"/>
-    <col width="20.7109375" customWidth="1" style="177" min="7" max="7"/>
-    <col width="0.5703125" customWidth="1" style="177" min="8" max="8"/>
-    <col width="10.7109375" customWidth="1" style="177" min="9" max="9"/>
-    <col width="0.5703125" customWidth="1" style="177" min="10" max="10"/>
-    <col width="20.7109375" customWidth="1" style="177" min="11" max="11"/>
-    <col width="9.140625" customWidth="1" style="177" min="12" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="177" width="20.7109375"/>
+    <col customWidth="1" max="2" min="2" style="177" width="0.5703125"/>
+    <col customWidth="1" max="3" min="3" style="177" width="10.7109375"/>
+    <col customWidth="1" max="4" min="4" style="177" width="0.5703125"/>
+    <col customWidth="1" max="5" min="5" style="177" width="20.7109375"/>
+    <col customWidth="1" max="6" min="6" style="177" width="2.42578125"/>
+    <col customWidth="1" max="7" min="7" style="177" width="20.7109375"/>
+    <col customWidth="1" max="8" min="8" style="177" width="0.5703125"/>
+    <col customWidth="1" max="9" min="9" style="177" width="10.7109375"/>
+    <col customWidth="1" max="10" min="10" style="177" width="0.5703125"/>
+    <col customWidth="1" max="11" min="11" style="177" width="20.7109375"/>
+    <col customWidth="1" max="16384" min="12" style="177" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="49.5" customHeight="1" s="285">
+    <row customHeight="1" ht="49.5" r="1" s="285">
       <c r="A1" s="222" t="inlineStr">
         <is>
           <t>Unemployment Rat Females</t>
@@ -25656,7 +27609,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="21.75" customHeight="1" s="285">
+    <row customHeight="1" ht="21.75" r="2" s="285">
       <c r="A2" s="226" t="inlineStr">
         <is>
           <t xml:space="preserve">يوليو  - July   </t>
@@ -25688,7 +27641,7 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
@@ -25705,13 +27658,13 @@
       <selection activeCell="A1" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="44.65" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultRowHeight="44.65"/>
   <cols>
-    <col width="62.7109375" customWidth="1" style="285" min="1" max="1"/>
-    <col width="63.28515625" customWidth="1" style="285" min="2" max="2"/>
+    <col customWidth="1" max="1" min="1" style="285" width="62.7109375"/>
+    <col customWidth="1" max="2" min="2" style="285" width="63.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50.65" customHeight="1" s="285">
+    <row customHeight="1" ht="50.65" r="1" s="285">
       <c r="A1" s="187" t="inlineStr">
         <is>
           <t>• 2.8% is the rate of job seekers in the Sultanate in 2019.</t>
@@ -25723,7 +27676,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="50.65" customHeight="1" s="285">
+    <row customHeight="1" ht="50.65" r="2" s="285">
       <c r="A2" s="187" t="inlineStr">
         <is>
           <t>• 8% is the rate of job seekers between persons aged 15-24 years, and 5.6% for those in the age 25-29 years.</t>
@@ -25736,7 +27689,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
@@ -25755,12 +27708,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="34.85546875" customWidth="1" style="285" min="1" max="1"/>
-    <col width="27.42578125" customWidth="1" style="285" min="2" max="2"/>
-    <col width="15" customWidth="1" style="285" min="3" max="3"/>
+    <col customWidth="1" max="1" min="1" style="285" width="34.85546875"/>
+    <col customWidth="1" max="2" min="2" style="285" width="27.42578125"/>
+    <col customWidth="1" max="3" min="3" style="285" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.75" customHeight="1" s="285">
+    <row customHeight="1" ht="21.75" r="1" s="285">
       <c r="A1" s="167" t="inlineStr">
         <is>
           <t>CL_ID</t>
@@ -25777,7 +27730,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="2" s="285">
       <c r="A2" s="177" t="inlineStr">
         <is>
           <t>CL_AGE_GROUP_En_V1</t>
@@ -25790,7 +27743,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="3" s="285">
       <c r="A3" s="177" t="inlineStr">
         <is>
           <t>CL_AGE_GROUP_En_V1</t>
@@ -25803,7 +27756,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="4" s="285">
       <c r="A4" s="177" t="inlineStr">
         <is>
           <t>CL_AGE_GROUP_En_V1</t>
@@ -25816,7 +27769,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="5" s="285">
       <c r="A5" s="177" t="inlineStr">
         <is>
           <t>CL_AGE_GROUP_En_V1</t>
@@ -25829,7 +27782,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="6" s="285">
       <c r="A6" s="177" t="inlineStr">
         <is>
           <t>CL_AGE_GROUP_En_V1</t>
@@ -25842,7 +27795,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="7" s="285">
       <c r="A7" s="177" t="inlineStr">
         <is>
           <t>CL_AGE_GROUP_En_V1</t>
@@ -25855,7 +27808,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="8" s="285">
       <c r="A8" s="177" t="inlineStr">
         <is>
           <t>CL_AGE_GROUP_Ar_V1</t>
@@ -25868,7 +27821,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="9" s="285">
       <c r="A9" s="177" t="inlineStr">
         <is>
           <t>CL_AGE_GROUP_Ar_V1</t>
@@ -25881,7 +27834,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="10" s="285">
       <c r="A10" s="177" t="inlineStr">
         <is>
           <t>CL_AGE_GROUP_Ar_V1</t>
@@ -25894,7 +27847,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="11" s="285">
       <c r="A11" s="177" t="inlineStr">
         <is>
           <t>CL_AGE_GROUP_Ar_V1</t>
@@ -25907,7 +27860,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="12" s="285">
       <c r="A12" s="177" t="inlineStr">
         <is>
           <t>CL_AGE_GROUP_Ar_V1</t>
@@ -25920,7 +27873,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="13" s="285">
       <c r="A13" s="177" t="inlineStr">
         <is>
           <t>CL_AGE_GROUP_Ar_V1</t>
@@ -25933,7 +27886,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="14" s="285">
       <c r="A14" s="164" t="inlineStr">
         <is>
           <t>CL_SEX_Ar_V1</t>
@@ -25946,7 +27899,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="15" s="285">
       <c r="A15" s="164" t="inlineStr">
         <is>
           <t>CL_SEX_Ar_V1</t>
@@ -25959,7 +27912,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="16" s="285">
       <c r="A16" s="164" t="inlineStr">
         <is>
           <t>CL_SEX_Ar_V1</t>
@@ -25972,7 +27925,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="17" s="285">
       <c r="A17" s="164" t="inlineStr">
         <is>
           <t>CL_SEX_En_V2</t>
@@ -25985,7 +27938,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="18" s="285">
       <c r="A18" s="164" t="inlineStr">
         <is>
           <t>CL_SEX_En_V2</t>
@@ -25998,7 +27951,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="18.75" customHeight="1" s="285">
+    <row customHeight="1" ht="18.75" r="19" s="285">
       <c r="A19" s="164" t="inlineStr">
         <is>
           <t>CL_SEX_En_V2</t>
@@ -26012,7 +27965,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>